--- a/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1A0D7F-1319-1049-BFFE-F5E20D06A318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C12126-A2E1-004F-BB9F-528D5B37404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="580" windowWidth="23580" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -585,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +692,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -779,6 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1795,7 +1802,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2447,7 +2454,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4472,9 +4479,9 @@
       <c r="I43" s="64">
         <v>0</v>
       </c>
-      <c r="J43" s="65">
-        <f>G43</f>
-        <v>397732</v>
+      <c r="J43" s="75" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K43" s="66">
         <f t="shared" si="2"/>

--- a/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/extracted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C12126-A2E1-004F-BB9F-528D5B37404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD681CE-282F-2A4C-99EA-64FE72DA8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="580" windowWidth="23580" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="7980" windowWidth="23580" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -554,6 +554,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,6 +562,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,7 +694,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -701,90 +703,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
@@ -1802,7 +1764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2450,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2461,78 +2423,76 @@
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="20"/>
+    <col min="3" max="3" width="10.83203125" style="13"/>
     <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="20" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="28" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" customWidth="1"/>
-    <col min="15" max="15" width="46.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="17" customWidth="1"/>
+    <col min="12" max="14" width="5.83203125" customWidth="1"/>
+    <col min="15" max="15" width="46.5" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="52" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="26"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="22"/>
-    </row>
-    <row r="2" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="15" t="s">
         <v>110</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -2544,494 +2504,485 @@
       <c r="N2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>1416012</v>
       </c>
       <c r="D3" s="3">
         <v>608809</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f t="shared" ref="E3" si="0">F3-D3-C3</f>
         <v>26838</v>
       </c>
       <c r="F3" s="3">
         <v>2051659</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="30">
         <v>778752</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="31">
         <v>2</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="31">
         <v>1</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="32">
         <f t="shared" ref="J3:J34" si="1">(F3-G3)/(N3-SUM(H3:I3))</f>
         <v>318226.75</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="33">
         <f t="shared" ref="K3:K52" si="2">N3-L3-M3</f>
         <v>6</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="73">
-        <v>0</v>
-      </c>
-      <c r="N3" s="74">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38">
         <v>7</v>
       </c>
-      <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>192126</v>
       </c>
       <c r="D4" s="3">
         <v>159856</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E52" si="3">F4-D4-C4</f>
         <v>1183</v>
       </c>
       <c r="F4" s="3">
         <v>353165</v>
       </c>
-      <c r="G4" s="63">
-        <v>0</v>
-      </c>
-      <c r="H4" s="64">
-        <v>0</v>
-      </c>
-      <c r="I4" s="64">
-        <v>0</v>
-      </c>
-      <c r="J4" s="65">
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
         <f t="shared" si="1"/>
         <v>353165</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L4" s="73">
-        <v>0</v>
-      </c>
-      <c r="M4" s="73">
-        <v>0</v>
-      </c>
-      <c r="N4" s="74">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="38">
         <v>1</v>
       </c>
-      <c r="O4" s="27"/>
-    </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="13">
         <v>1638516</v>
       </c>
       <c r="D5" s="3">
         <v>1629318</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="3"/>
         <v>415</v>
       </c>
       <c r="F5" s="3">
         <v>3268249</v>
       </c>
-      <c r="G5" s="63">
-        <v>0</v>
-      </c>
-      <c r="H5" s="64">
-        <v>0</v>
-      </c>
-      <c r="I5" s="64">
-        <v>0</v>
-      </c>
-      <c r="J5" s="65">
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
         <f t="shared" si="1"/>
         <v>363138.77777777775</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="33">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="M5" s="73">
-        <v>0</v>
-      </c>
-      <c r="N5" s="74">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="38">
         <v>9</v>
       </c>
-      <c r="O5" s="27"/>
-    </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="13">
         <v>828266</v>
       </c>
       <c r="D6" s="3">
         <v>330485</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="3"/>
         <v>20645</v>
       </c>
       <c r="F6" s="3">
         <v>1179396</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="30">
         <v>237596</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="31">
         <v>1</v>
       </c>
-      <c r="I6" s="64">
-        <v>0</v>
-      </c>
-      <c r="J6" s="65">
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
         <f t="shared" si="1"/>
         <v>313933.33333333331</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="33">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L6" s="73">
-        <v>0</v>
-      </c>
-      <c r="M6" s="73">
-        <v>0</v>
-      </c>
-      <c r="N6" s="74">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38">
         <v>4</v>
       </c>
-      <c r="O6" s="27"/>
-    </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="13">
         <v>5640667</v>
       </c>
       <c r="D7" s="3">
         <v>11084234</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>16724901</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="30">
         <v>1920479</v>
       </c>
-      <c r="H7" s="64">
-        <v>0</v>
-      </c>
-      <c r="I7" s="64">
+      <c r="H7" s="31">
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
         <v>7</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="32">
         <f t="shared" si="1"/>
         <v>321835.26086956525</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="33">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7">
         <v>42</v>
       </c>
-      <c r="M7" s="73">
-        <v>0</v>
-      </c>
-      <c r="N7" s="74">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="38">
         <v>53</v>
       </c>
-      <c r="O7" s="27"/>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="13">
         <v>1378248</v>
       </c>
       <c r="D8" s="3">
         <v>1679052</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="3"/>
         <v>107650</v>
       </c>
       <c r="F8" s="3">
         <v>3164950</v>
       </c>
-      <c r="G8" s="63">
-        <v>0</v>
-      </c>
-      <c r="H8" s="64">
-        <v>0</v>
-      </c>
-      <c r="I8" s="64">
-        <v>0</v>
-      </c>
-      <c r="J8" s="65">
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
         <f t="shared" si="1"/>
         <v>452135.71428571426</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8">
         <v>4</v>
       </c>
-      <c r="M8" s="73">
-        <v>0</v>
-      </c>
-      <c r="N8" s="74">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="38">
         <v>7</v>
       </c>
-      <c r="O8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="13">
         <v>676650</v>
       </c>
       <c r="D9" s="3">
         <v>1022792</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="3"/>
         <v>73485</v>
       </c>
       <c r="F9" s="3">
         <v>1772927</v>
       </c>
-      <c r="G9" s="63">
-        <v>0</v>
-      </c>
-      <c r="H9" s="64">
-        <v>0</v>
-      </c>
-      <c r="I9" s="64">
-        <v>0</v>
-      </c>
-      <c r="J9" s="65">
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f t="shared" si="1"/>
         <v>354585.4</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="M9" s="73">
-        <v>0</v>
-      </c>
-      <c r="N9" s="74">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="38">
         <v>5</v>
       </c>
-      <c r="O9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="13">
         <v>196392</v>
       </c>
       <c r="D10" s="3">
         <v>281382</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="3"/>
         <v>10496</v>
       </c>
       <c r="F10" s="3">
         <v>488270</v>
       </c>
-      <c r="G10" s="63">
-        <v>0</v>
-      </c>
-      <c r="H10" s="64">
-        <v>0</v>
-      </c>
-      <c r="I10" s="64">
-        <v>0</v>
-      </c>
-      <c r="J10" s="65">
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
         <f t="shared" si="1"/>
         <v>488270</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="73">
-        <v>0</v>
-      </c>
-      <c r="N10" s="74">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38">
         <v>1</v>
       </c>
-      <c r="O10" s="27"/>
-    </row>
-    <row r="11" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="13">
         <v>5469164</v>
       </c>
       <c r="D11" s="3">
         <v>4942287</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="3"/>
         <v>53340</v>
       </c>
       <c r="F11" s="3">
         <v>10464791</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="30">
         <v>311999</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="31">
         <v>2</v>
       </c>
-      <c r="I11" s="64">
-        <v>0</v>
-      </c>
-      <c r="J11" s="65">
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
         <f t="shared" si="1"/>
         <v>406111.68</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="33">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11">
         <v>11</v>
       </c>
-      <c r="M11" s="73">
-        <v>0</v>
-      </c>
-      <c r="N11" s="74">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
         <v>27</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="13">
         <v>2490396</v>
       </c>
       <c r="D12" s="3">
         <v>2393089</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="F12" s="3">
         <v>4883611</v>
       </c>
-      <c r="G12" s="63">
-        <v>0</v>
-      </c>
-      <c r="H12" s="64">
-        <v>0</v>
-      </c>
-      <c r="I12" s="64">
-        <v>0</v>
-      </c>
-      <c r="J12" s="65">
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32">
         <f t="shared" si="1"/>
         <v>348829.35714285716</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="33">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L12" s="73">
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="M12" s="73">
-        <v>0</v>
-      </c>
-      <c r="N12" s="74">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="38">
         <v>14</v>
       </c>
-      <c r="O12" s="27"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3040,43 +2991,43 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="13">
         <v>155215</v>
       </c>
       <c r="D13" s="3">
         <v>354762</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="3"/>
         <v>69807</v>
       </c>
       <c r="F13" s="3">
         <v>579784</v>
       </c>
-      <c r="G13" s="63">
-        <v>0</v>
-      </c>
-      <c r="H13" s="64">
-        <v>0</v>
-      </c>
-      <c r="I13" s="64">
-        <v>0</v>
-      </c>
-      <c r="J13" s="65">
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="32">
         <f t="shared" si="1"/>
         <v>289892</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="73">
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="M13" s="73">
-        <v>0</v>
-      </c>
-      <c r="N13" s="74">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="38">
         <v>2</v>
       </c>
     </row>
@@ -3087,43 +3038,43 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="13">
         <v>561405</v>
       </c>
       <c r="D14" s="3">
         <v>255531</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="3"/>
         <v>32973</v>
       </c>
       <c r="F14" s="3">
         <v>849909</v>
       </c>
-      <c r="G14" s="63">
-        <v>0</v>
-      </c>
-      <c r="H14" s="64">
-        <v>0</v>
-      </c>
-      <c r="I14" s="64">
-        <v>0</v>
-      </c>
-      <c r="J14" s="65">
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="32">
         <f t="shared" si="1"/>
         <v>424954.5</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="33">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="73">
-        <v>0</v>
-      </c>
-      <c r="M14" s="73">
-        <v>0</v>
-      </c>
-      <c r="N14" s="74">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="38">
         <v>2</v>
       </c>
     </row>
@@ -3131,46 +3082,46 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="13">
         <v>2416929</v>
       </c>
       <c r="D15" s="3">
         <v>3355487</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="3"/>
         <v>104403</v>
       </c>
       <c r="F15" s="3">
         <v>5876819</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="30">
         <v>254578</v>
       </c>
-      <c r="H15" s="64">
-        <v>0</v>
-      </c>
-      <c r="I15" s="64">
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
         <v>1</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="32">
         <f t="shared" si="1"/>
         <v>330720.0588235294</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="33">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L15" s="73">
+      <c r="L15">
         <v>13</v>
       </c>
-      <c r="M15" s="73">
-        <v>0</v>
-      </c>
-      <c r="N15" s="74">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="38">
         <v>18</v>
       </c>
     </row>
@@ -3178,46 +3129,46 @@
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="13">
         <v>1738745</v>
       </c>
       <c r="D16" s="3">
         <v>1194901</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="3"/>
         <v>62798</v>
       </c>
       <c r="F16" s="3">
         <v>2996444</v>
       </c>
-      <c r="G16" s="63">
-        <v>0</v>
-      </c>
-      <c r="H16" s="64">
-        <v>0</v>
-      </c>
-      <c r="I16" s="64">
-        <v>0</v>
-      </c>
-      <c r="J16" s="65">
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
         <f t="shared" si="1"/>
         <v>332938.22222222225</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="33">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16">
         <v>2</v>
       </c>
-      <c r="M16" s="73">
-        <v>0</v>
-      </c>
-      <c r="N16" s="74">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="38">
         <v>9</v>
       </c>
     </row>
@@ -3228,43 +3179,43 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="13">
         <v>859418</v>
       </c>
       <c r="D17" s="3">
         <v>762271</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="3"/>
         <v>78579</v>
       </c>
       <c r="F17" s="3">
         <v>1700268</v>
       </c>
-      <c r="G17" s="63">
-        <v>0</v>
-      </c>
-      <c r="H17" s="64">
-        <v>0</v>
-      </c>
-      <c r="I17" s="64">
-        <v>0</v>
-      </c>
-      <c r="J17" s="65">
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
         <f t="shared" si="1"/>
         <v>425067</v>
       </c>
-      <c r="K17" s="66">
+      <c r="K17" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L17" s="73">
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="73">
-        <v>0</v>
-      </c>
-      <c r="N17" s="74">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="38">
         <v>4</v>
       </c>
     </row>
@@ -3275,43 +3226,43 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="13">
         <v>775898</v>
       </c>
       <c r="D18" s="3">
         <v>557258</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="3"/>
         <v>25797</v>
       </c>
       <c r="F18" s="3">
         <v>1358953</v>
       </c>
-      <c r="G18" s="63">
-        <v>0</v>
-      </c>
-      <c r="H18" s="64">
-        <v>0</v>
-      </c>
-      <c r="I18" s="64">
-        <v>0</v>
-      </c>
-      <c r="J18" s="65">
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="32">
         <f t="shared" si="1"/>
         <v>339738.25</v>
       </c>
-      <c r="K18" s="66">
+      <c r="K18" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L18" s="73">
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="73">
-        <v>0</v>
-      </c>
-      <c r="N18" s="74">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="38">
         <v>4</v>
       </c>
     </row>
@@ -3322,43 +3273,43 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="13">
         <v>1363964</v>
       </c>
       <c r="D19" s="3">
         <v>735419</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="3"/>
         <v>16512</v>
       </c>
       <c r="F19" s="3">
         <v>2115895</v>
       </c>
-      <c r="G19" s="63">
-        <v>0</v>
-      </c>
-      <c r="H19" s="64">
-        <v>0</v>
-      </c>
-      <c r="I19" s="64">
-        <v>0</v>
-      </c>
-      <c r="J19" s="65">
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="32">
         <f t="shared" si="1"/>
         <v>352649.16666666669</v>
       </c>
-      <c r="K19" s="66">
+      <c r="K19" s="33">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" s="73">
-        <v>0</v>
-      </c>
-      <c r="N19" s="74">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="38">
         <v>6</v>
       </c>
     </row>
@@ -3369,43 +3320,43 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="13">
         <v>1169788</v>
       </c>
       <c r="D20" s="3">
         <v>727402</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="3"/>
         <v>49945</v>
       </c>
       <c r="F20" s="3">
         <v>1947135</v>
       </c>
-      <c r="G20" s="63">
-        <v>0</v>
-      </c>
-      <c r="H20" s="64">
-        <v>0</v>
-      </c>
-      <c r="I20" s="64">
-        <v>0</v>
-      </c>
-      <c r="J20" s="65">
+      <c r="G20" s="30">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <v>0</v>
+      </c>
+      <c r="J20" s="32">
         <f t="shared" si="1"/>
         <v>324522.5</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="33">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20" s="73">
-        <v>0</v>
-      </c>
-      <c r="N20" s="74">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="38">
         <v>6</v>
       </c>
     </row>
@@ -3416,43 +3367,43 @@
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="13">
         <v>340236</v>
       </c>
       <c r="D21" s="3">
         <v>468978</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="3"/>
         <v>19091</v>
       </c>
       <c r="F21" s="3">
         <v>828305</v>
       </c>
-      <c r="G21" s="63">
-        <v>0</v>
-      </c>
-      <c r="H21" s="64">
-        <v>0</v>
-      </c>
-      <c r="I21" s="64">
-        <v>0</v>
-      </c>
-      <c r="J21" s="65">
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
+        <v>0</v>
+      </c>
+      <c r="J21" s="32">
         <f t="shared" si="1"/>
         <v>414152.5</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="73">
+      <c r="L21">
         <v>2</v>
       </c>
-      <c r="M21" s="73">
-        <v>0</v>
-      </c>
-      <c r="N21" s="74">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="38">
         <v>2</v>
       </c>
     </row>
@@ -3460,46 +3411,46 @@
       <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="13">
         <v>1028150</v>
       </c>
       <c r="D22" s="3">
         <v>1912740</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="3"/>
         <v>13280</v>
       </c>
       <c r="F22" s="3">
         <v>2954170</v>
       </c>
-      <c r="G22" s="63">
-        <v>0</v>
-      </c>
-      <c r="H22" s="64">
-        <v>0</v>
-      </c>
-      <c r="I22" s="64">
-        <v>0</v>
-      </c>
-      <c r="J22" s="65">
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31">
+        <v>0</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0</v>
+      </c>
+      <c r="J22" s="32">
         <f t="shared" si="1"/>
         <v>369271.25</v>
       </c>
-      <c r="K22" s="66">
+      <c r="K22" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L22" s="73">
+      <c r="L22">
         <v>7</v>
       </c>
-      <c r="M22" s="73">
-        <v>0</v>
-      </c>
-      <c r="N22" s="74">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="38">
         <v>8</v>
       </c>
     </row>
@@ -3510,43 +3461,43 @@
       <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="13">
         <v>699001</v>
       </c>
       <c r="D23" s="3">
         <v>2482596</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="3"/>
         <v>476408</v>
       </c>
       <c r="F23" s="3">
         <v>3658005</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="30">
         <v>1521308</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="31">
         <v>4</v>
       </c>
-      <c r="I23" s="64">
-        <v>0</v>
-      </c>
-      <c r="J23" s="65">
+      <c r="I23" s="31">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
         <f t="shared" si="1"/>
         <v>427339.4</v>
       </c>
-      <c r="K23" s="66">
+      <c r="K23" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="73">
+      <c r="L23">
         <v>9</v>
       </c>
-      <c r="M23" s="73">
-        <v>0</v>
-      </c>
-      <c r="N23" s="74">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="38">
         <v>9</v>
       </c>
     </row>
@@ -3554,46 +3505,46 @@
       <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="13">
         <v>2617881</v>
       </c>
       <c r="D24" s="3">
         <v>2688527</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="3"/>
         <v>116732</v>
       </c>
       <c r="F24" s="3">
         <v>5423140</v>
       </c>
-      <c r="G24" s="63">
-        <v>0</v>
-      </c>
-      <c r="H24" s="64">
-        <v>0</v>
-      </c>
-      <c r="I24" s="64">
-        <v>0</v>
-      </c>
-      <c r="J24" s="65">
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31">
+        <v>0</v>
+      </c>
+      <c r="I24" s="31">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
         <f t="shared" si="1"/>
         <v>387367.14285714284</v>
       </c>
-      <c r="K24" s="66">
+      <c r="K24" s="33">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L24" s="73">
+      <c r="L24">
         <v>7</v>
       </c>
-      <c r="M24" s="73">
-        <v>0</v>
-      </c>
-      <c r="N24" s="74">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="38">
         <v>14</v>
       </c>
     </row>
@@ -3604,47 +3555,47 @@
       <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="13">
         <v>1474820</v>
       </c>
       <c r="D25" s="3">
         <f>1097777+456596</f>
         <v>1554373</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="3"/>
         <v>164616</v>
       </c>
       <c r="F25" s="3">
         <v>3193809</v>
       </c>
-      <c r="G25" s="63">
-        <v>0</v>
-      </c>
-      <c r="H25" s="64">
-        <v>0</v>
-      </c>
-      <c r="I25" s="64">
-        <v>0</v>
-      </c>
-      <c r="J25" s="65">
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
+        <v>0</v>
+      </c>
+      <c r="I25" s="31">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
         <f t="shared" si="1"/>
         <v>399226.125</v>
       </c>
-      <c r="K25" s="66">
+      <c r="K25" s="33">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L25" s="73">
+      <c r="L25">
         <v>4</v>
       </c>
-      <c r="M25" s="73">
-        <v>0</v>
-      </c>
-      <c r="N25" s="74">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="38">
         <v>8</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="17" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3655,43 +3606,43 @@
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="13">
         <v>806832</v>
       </c>
       <c r="D26" s="3">
         <v>421014</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>1227846</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="30">
         <v>255971</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="31">
         <v>1</v>
       </c>
-      <c r="I26" s="64">
-        <v>0</v>
-      </c>
-      <c r="J26" s="65">
+      <c r="I26" s="31">
+        <v>0</v>
+      </c>
+      <c r="J26" s="32">
         <f t="shared" si="1"/>
         <v>323958.33333333331</v>
       </c>
-      <c r="K26" s="66">
+      <c r="K26" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L26" s="73">
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" s="73">
-        <v>0</v>
-      </c>
-      <c r="N26" s="74">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="38">
         <v>4</v>
       </c>
     </row>
@@ -3702,43 +3653,43 @@
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="13">
         <v>1723982</v>
       </c>
       <c r="D27" s="3">
         <v>1172135</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="3"/>
         <v>77304</v>
       </c>
       <c r="F27" s="3">
         <v>2973421</v>
       </c>
-      <c r="G27" s="63">
-        <v>0</v>
-      </c>
-      <c r="H27" s="64">
-        <v>0</v>
-      </c>
-      <c r="I27" s="64">
-        <v>0</v>
-      </c>
-      <c r="J27" s="65">
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31">
+        <v>0</v>
+      </c>
+      <c r="I27" s="31">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
         <f t="shared" si="1"/>
         <v>371677.625</v>
       </c>
-      <c r="K27" s="66">
+      <c r="K27" s="33">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L27" s="73">
+      <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" s="73">
-        <v>0</v>
-      </c>
-      <c r="N27" s="74">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="38">
         <v>8</v>
       </c>
     </row>
@@ -3749,43 +3700,43 @@
       <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="13">
         <v>339169</v>
       </c>
       <c r="D28" s="3">
         <v>262340</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F28" s="3">
         <v>601509</v>
       </c>
-      <c r="G28" s="63">
-        <v>0</v>
-      </c>
-      <c r="H28" s="64">
-        <v>0</v>
-      </c>
-      <c r="I28" s="64">
-        <v>0</v>
-      </c>
-      <c r="J28" s="65">
+      <c r="G28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31">
+        <v>0</v>
+      </c>
+      <c r="I28" s="31">
+        <v>0</v>
+      </c>
+      <c r="J28" s="32">
         <f t="shared" si="1"/>
         <v>601509</v>
       </c>
-      <c r="K28" s="66">
+      <c r="K28" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L28" s="73">
-        <v>0</v>
-      </c>
-      <c r="M28" s="73">
-        <v>0</v>
-      </c>
-      <c r="N28" s="74">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3796,43 +3747,43 @@
       <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="13">
         <v>585234</v>
       </c>
       <c r="D29" s="3">
         <v>326018</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="3"/>
         <v>30046</v>
       </c>
       <c r="F29" s="3">
         <v>941298</v>
       </c>
-      <c r="G29" s="63">
-        <v>0</v>
-      </c>
-      <c r="H29" s="64">
-        <v>0</v>
-      </c>
-      <c r="I29" s="64">
-        <v>0</v>
-      </c>
-      <c r="J29" s="65">
+      <c r="G29" s="30">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31">
+        <v>0</v>
+      </c>
+      <c r="I29" s="31">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
         <f t="shared" si="1"/>
         <v>313766</v>
       </c>
-      <c r="K29" s="66">
+      <c r="K29" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L29" s="73">
-        <v>0</v>
-      </c>
-      <c r="M29" s="73">
-        <v>0</v>
-      </c>
-      <c r="N29" s="74">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="38">
         <v>3</v>
       </c>
     </row>
@@ -3843,43 +3794,43 @@
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="13">
         <v>633827</v>
       </c>
       <c r="D30" s="3">
         <v>665526</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="3"/>
         <v>56254</v>
       </c>
       <c r="F30" s="3">
         <v>1355607</v>
       </c>
-      <c r="G30" s="63">
-        <v>0</v>
-      </c>
-      <c r="H30" s="64">
-        <v>0</v>
-      </c>
-      <c r="I30" s="64">
-        <v>0</v>
-      </c>
-      <c r="J30" s="65">
+      <c r="G30" s="30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="31">
+        <v>0</v>
+      </c>
+      <c r="I30" s="31">
+        <v>0</v>
+      </c>
+      <c r="J30" s="32">
         <f t="shared" si="1"/>
         <v>338901.75</v>
       </c>
-      <c r="K30" s="66">
+      <c r="K30" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L30" s="73">
+      <c r="L30">
         <v>3</v>
       </c>
-      <c r="M30" s="73">
-        <v>0</v>
-      </c>
-      <c r="N30" s="74">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="38">
         <v>4</v>
       </c>
     </row>
@@ -3890,43 +3841,43 @@
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="13">
         <v>354045</v>
       </c>
       <c r="D31" s="3">
         <v>413895</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="3"/>
         <v>19162</v>
       </c>
       <c r="F31" s="3">
         <v>787102</v>
       </c>
-      <c r="G31" s="63">
-        <v>0</v>
-      </c>
-      <c r="H31" s="64">
-        <v>0</v>
-      </c>
-      <c r="I31" s="64">
-        <v>0</v>
-      </c>
-      <c r="J31" s="65">
+      <c r="G31" s="30">
+        <v>0</v>
+      </c>
+      <c r="H31" s="31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="32">
         <f t="shared" si="1"/>
         <v>393551</v>
       </c>
-      <c r="K31" s="66">
+      <c r="K31" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L31" s="73">
+      <c r="L31">
         <v>2</v>
       </c>
-      <c r="M31" s="73">
-        <v>0</v>
-      </c>
-      <c r="N31" s="74">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="38">
         <v>2</v>
       </c>
     </row>
@@ -3937,43 +3888,43 @@
       <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="13">
         <v>1843047</v>
       </c>
       <c r="D32" s="3">
         <v>2539128</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="3"/>
         <v>50748</v>
       </c>
       <c r="F32" s="3">
         <v>4432923</v>
       </c>
-      <c r="G32" s="63">
-        <v>0</v>
-      </c>
-      <c r="H32" s="64">
-        <v>0</v>
-      </c>
-      <c r="I32" s="64">
-        <v>0</v>
-      </c>
-      <c r="J32" s="65">
+      <c r="G32" s="30">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31">
+        <v>0</v>
+      </c>
+      <c r="I32" s="31">
+        <v>0</v>
+      </c>
+      <c r="J32" s="32">
         <f t="shared" si="1"/>
         <v>369410.25</v>
       </c>
-      <c r="K32" s="66">
+      <c r="K32" s="33">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L32" s="73">
+      <c r="L32">
         <v>10</v>
       </c>
-      <c r="M32" s="73">
-        <v>0</v>
-      </c>
-      <c r="N32" s="74">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="38">
         <v>12</v>
       </c>
     </row>
@@ -3984,43 +3935,43 @@
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="13">
         <v>407786</v>
       </c>
       <c r="D33" s="3">
         <v>495781</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="F33" s="3">
         <v>903684</v>
       </c>
-      <c r="G33" s="63">
-        <v>0</v>
-      </c>
-      <c r="H33" s="64">
-        <v>0</v>
-      </c>
-      <c r="I33" s="64">
-        <v>0</v>
-      </c>
-      <c r="J33" s="65">
+      <c r="G33" s="30">
+        <v>0</v>
+      </c>
+      <c r="H33" s="31">
+        <v>0</v>
+      </c>
+      <c r="I33" s="31">
+        <v>0</v>
+      </c>
+      <c r="J33" s="32">
         <f t="shared" si="1"/>
         <v>301228</v>
       </c>
-      <c r="K33" s="66">
+      <c r="K33" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L33" s="73">
+      <c r="L33">
         <v>2</v>
       </c>
-      <c r="M33" s="73">
-        <v>0</v>
-      </c>
-      <c r="N33" s="74">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="38">
         <v>3</v>
       </c>
     </row>
@@ -4031,43 +3982,43 @@
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="13">
         <v>2691583</v>
       </c>
       <c r="D34" s="3">
         <v>4716619</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="3"/>
         <v>1196227</v>
       </c>
       <c r="F34" s="3">
         <v>8604429</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="30">
         <v>543969</v>
       </c>
-      <c r="H34" s="64">
-        <v>0</v>
-      </c>
-      <c r="I34" s="64">
+      <c r="H34" s="31">
+        <v>0</v>
+      </c>
+      <c r="I34" s="31">
         <v>2</v>
       </c>
-      <c r="J34" s="65">
+      <c r="J34" s="32">
         <f t="shared" si="1"/>
         <v>322418.40000000002</v>
       </c>
-      <c r="K34" s="66">
+      <c r="K34" s="33">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L34" s="73">
+      <c r="L34">
         <v>19</v>
       </c>
-      <c r="M34" s="73">
-        <v>0</v>
-      </c>
-      <c r="N34" s="74">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="38">
         <v>27</v>
       </c>
     </row>
@@ -4075,46 +4026,46 @@
       <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="13">
         <v>2631336</v>
       </c>
       <c r="D35" s="3">
         <v>2660535</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="3"/>
         <v>33374</v>
       </c>
       <c r="F35" s="3">
         <v>5325245</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="30">
         <v>341457</v>
       </c>
-      <c r="H35" s="64">
-        <v>0</v>
-      </c>
-      <c r="I35" s="64">
+      <c r="H35" s="31">
+        <v>0</v>
+      </c>
+      <c r="I35" s="31">
         <v>1</v>
       </c>
-      <c r="J35" s="65">
+      <c r="J35" s="32">
         <f t="shared" ref="J35:J52" si="4">(F35-G35)/(N35-SUM(H35:I35))</f>
         <v>415315.66666666669</v>
       </c>
-      <c r="K35" s="66">
+      <c r="K35" s="33">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L35" s="73">
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="M35" s="73">
-        <v>0</v>
-      </c>
-      <c r="N35" s="74">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="38">
         <v>13</v>
       </c>
     </row>
@@ -4125,46 +4076,46 @@
       <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="13">
         <v>245229</v>
       </c>
       <c r="D36" s="3">
         <v>97970</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="3"/>
         <v>12399</v>
       </c>
       <c r="F36" s="3">
         <v>355598</v>
       </c>
-      <c r="G36" s="63">
-        <v>0</v>
-      </c>
-      <c r="H36" s="64">
-        <v>0</v>
-      </c>
-      <c r="I36" s="64">
-        <v>0</v>
-      </c>
-      <c r="J36" s="65">
+      <c r="G36" s="30">
+        <v>0</v>
+      </c>
+      <c r="H36" s="31">
+        <v>0</v>
+      </c>
+      <c r="I36" s="31">
+        <v>0</v>
+      </c>
+      <c r="J36" s="32">
         <f t="shared" si="4"/>
         <v>355598</v>
       </c>
-      <c r="K36" s="66">
+      <c r="K36" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L36" s="73">
-        <v>0</v>
-      </c>
-      <c r="M36" s="73">
-        <v>0</v>
-      </c>
-      <c r="N36" s="74">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="38">
         <v>1</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="17" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4172,46 +4123,46 @@
       <c r="A37" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="13">
         <v>3252887</v>
       </c>
       <c r="D37" s="3">
         <v>2451500</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="3"/>
         <v>57153</v>
       </c>
       <c r="F37" s="3">
         <v>5761540</v>
       </c>
-      <c r="G37" s="63">
-        <v>0</v>
-      </c>
-      <c r="H37" s="64">
-        <v>0</v>
-      </c>
-      <c r="I37" s="64">
-        <v>0</v>
-      </c>
-      <c r="J37" s="65">
+      <c r="G37" s="30">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31">
+        <v>0</v>
+      </c>
+      <c r="I37" s="31">
+        <v>0</v>
+      </c>
+      <c r="J37" s="32">
         <f t="shared" si="4"/>
         <v>360096.25</v>
       </c>
-      <c r="K37" s="66">
+      <c r="K37" s="33">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="L37" s="73">
+      <c r="L37">
         <v>4</v>
       </c>
-      <c r="M37" s="73">
-        <v>0</v>
-      </c>
-      <c r="N37" s="74">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="38">
         <v>16</v>
       </c>
     </row>
@@ -4222,43 +4173,43 @@
       <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="13">
         <v>1044175</v>
       </c>
       <c r="D38" s="3">
         <v>475731</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="3"/>
         <v>31477</v>
       </c>
       <c r="F38" s="3">
         <v>1551383</v>
       </c>
-      <c r="G38" s="63">
-        <v>0</v>
-      </c>
-      <c r="H38" s="64">
-        <v>0</v>
-      </c>
-      <c r="I38" s="64">
-        <v>0</v>
-      </c>
-      <c r="J38" s="65">
+      <c r="G38" s="30">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31">
+        <v>0</v>
+      </c>
+      <c r="I38" s="31">
+        <v>0</v>
+      </c>
+      <c r="J38" s="32">
         <f t="shared" si="4"/>
         <v>310276.59999999998</v>
       </c>
-      <c r="K38" s="66">
+      <c r="K38" s="33">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L38" s="73">
-        <v>0</v>
-      </c>
-      <c r="M38" s="73">
-        <v>0</v>
-      </c>
-      <c r="N38" s="74">
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" s="38">
         <v>5</v>
       </c>
     </row>
@@ -4269,43 +4220,43 @@
       <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="13">
         <v>966786</v>
       </c>
       <c r="D39" s="3">
         <v>1285339</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="3"/>
         <v>56064</v>
       </c>
       <c r="F39" s="3">
         <v>2308189</v>
       </c>
-      <c r="G39" s="63">
-        <v>0</v>
-      </c>
-      <c r="H39" s="64">
-        <v>0</v>
-      </c>
-      <c r="I39" s="64">
-        <v>0</v>
-      </c>
-      <c r="J39" s="65">
+      <c r="G39" s="30">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31">
+        <v>0</v>
+      </c>
+      <c r="I39" s="31">
+        <v>0</v>
+      </c>
+      <c r="J39" s="32">
         <f t="shared" si="4"/>
         <v>461637.8</v>
       </c>
-      <c r="K39" s="66">
+      <c r="K39" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L39" s="73">
+      <c r="L39">
         <v>4</v>
       </c>
-      <c r="M39" s="73">
-        <v>0</v>
-      </c>
-      <c r="N39" s="74">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="38">
         <v>5</v>
       </c>
     </row>
@@ -4313,46 +4264,46 @@
       <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="13">
         <v>3432595</v>
       </c>
       <c r="D40" s="3">
         <v>3346712</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" s="3">
         <v>6779307</v>
       </c>
-      <c r="G40" s="63">
-        <v>0</v>
-      </c>
-      <c r="H40" s="64">
-        <v>0</v>
-      </c>
-      <c r="I40" s="64">
-        <v>0</v>
-      </c>
-      <c r="J40" s="65">
+      <c r="G40" s="30">
+        <v>0</v>
+      </c>
+      <c r="H40" s="31">
+        <v>0</v>
+      </c>
+      <c r="I40" s="31">
+        <v>0</v>
+      </c>
+      <c r="J40" s="32">
         <f t="shared" si="4"/>
         <v>376628.16666666669</v>
       </c>
-      <c r="K40" s="66">
+      <c r="K40" s="33">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L40" s="73">
+      <c r="L40">
         <v>9</v>
       </c>
-      <c r="M40" s="73">
-        <v>0</v>
-      </c>
-      <c r="N40" s="74">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" s="38">
         <v>18</v>
       </c>
     </row>
@@ -4363,43 +4314,43 @@
       <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="13">
         <v>109894</v>
       </c>
       <c r="D41" s="3">
         <v>312636</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <f t="shared" si="3"/>
         <v>65887</v>
       </c>
       <c r="F41" s="3">
         <v>488417</v>
       </c>
-      <c r="G41" s="63">
+      <c r="G41" s="30">
         <v>223860</v>
       </c>
-      <c r="H41" s="64">
-        <v>0</v>
-      </c>
-      <c r="I41" s="64">
+      <c r="H41" s="31">
+        <v>0</v>
+      </c>
+      <c r="I41" s="31">
         <v>1</v>
       </c>
-      <c r="J41" s="65">
+      <c r="J41" s="32">
         <f t="shared" si="4"/>
         <v>264557</v>
       </c>
-      <c r="K41" s="66">
+      <c r="K41" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L41" s="73">
+      <c r="L41">
         <v>2</v>
       </c>
-      <c r="M41" s="73">
-        <v>0</v>
-      </c>
-      <c r="N41" s="74">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="38">
         <v>2</v>
       </c>
     </row>
@@ -4410,43 +4361,43 @@
       <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="13">
         <v>1412684</v>
       </c>
       <c r="D42" s="3">
         <v>1076799</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f t="shared" si="3"/>
         <v>15959</v>
       </c>
       <c r="F42" s="3">
         <v>2505442</v>
       </c>
-      <c r="G42" s="63">
-        <v>0</v>
-      </c>
-      <c r="H42" s="64">
-        <v>0</v>
-      </c>
-      <c r="I42" s="64">
-        <v>0</v>
-      </c>
-      <c r="J42" s="65">
+      <c r="G42" s="30">
+        <v>0</v>
+      </c>
+      <c r="H42" s="31">
+        <v>0</v>
+      </c>
+      <c r="I42" s="31">
+        <v>0</v>
+      </c>
+      <c r="J42" s="32">
         <f t="shared" si="4"/>
         <v>357920.28571428574</v>
       </c>
-      <c r="K42" s="66">
+      <c r="K42" s="33">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L42" s="73">
+      <c r="L42">
         <v>1</v>
       </c>
-      <c r="M42" s="73">
-        <v>0</v>
-      </c>
-      <c r="N42" s="74">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="38">
         <v>7</v>
       </c>
     </row>
@@ -4457,46 +4408,46 @@
       <c r="B43" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="13">
         <v>321984</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f t="shared" si="3"/>
         <v>75748</v>
       </c>
       <c r="F43" s="3">
         <v>397732</v>
       </c>
-      <c r="G43" s="63">
+      <c r="G43" s="30">
         <v>397732</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="31">
         <v>1</v>
       </c>
-      <c r="I43" s="64">
-        <v>0</v>
-      </c>
-      <c r="J43" s="75" t="e">
+      <c r="I43" s="31">
+        <v>0</v>
+      </c>
+      <c r="J43" s="39" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K43" s="66">
+      <c r="K43" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L43" s="73">
-        <v>0</v>
-      </c>
-      <c r="M43" s="73">
-        <v>0</v>
-      </c>
-      <c r="N43" s="74">
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="38">
         <v>1</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="O43" s="17" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4507,43 +4458,43 @@
       <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="13">
         <v>1685255</v>
       </c>
       <c r="D44" s="3">
         <v>1105537</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <f t="shared" si="3"/>
         <v>50952</v>
       </c>
       <c r="F44" s="3">
         <v>2841744</v>
       </c>
-      <c r="G44" s="63">
+      <c r="G44" s="30">
         <v>252169</v>
       </c>
-      <c r="H44" s="64">
-        <v>0</v>
-      </c>
-      <c r="I44" s="64">
+      <c r="H44" s="31">
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
         <v>1</v>
       </c>
-      <c r="J44" s="65">
+      <c r="J44" s="32">
         <f t="shared" si="4"/>
         <v>323696.875</v>
       </c>
-      <c r="K44" s="66">
+      <c r="K44" s="33">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L44" s="73">
+      <c r="L44">
         <v>2</v>
       </c>
-      <c r="M44" s="73">
-        <v>0</v>
-      </c>
-      <c r="N44" s="74">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="38">
         <v>9</v>
       </c>
     </row>
@@ -4551,46 +4502,46 @@
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="13">
         <v>5926712</v>
       </c>
       <c r="D45" s="3">
         <v>4896673</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <f t="shared" si="3"/>
         <v>270241</v>
       </c>
       <c r="F45" s="3">
         <v>11093626</v>
       </c>
-      <c r="G45" s="63">
-        <v>0</v>
-      </c>
-      <c r="H45" s="64">
-        <v>0</v>
-      </c>
-      <c r="I45" s="64">
-        <v>0</v>
-      </c>
-      <c r="J45" s="65">
+      <c r="G45" s="30">
+        <v>0</v>
+      </c>
+      <c r="H45" s="31">
+        <v>0</v>
+      </c>
+      <c r="I45" s="31">
+        <v>0</v>
+      </c>
+      <c r="J45" s="32">
         <f t="shared" si="4"/>
         <v>308156.27777777775</v>
       </c>
-      <c r="K45" s="66">
+      <c r="K45" s="33">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="L45" s="73">
+      <c r="L45">
         <v>13</v>
       </c>
-      <c r="M45" s="73">
-        <v>0</v>
-      </c>
-      <c r="N45" s="74">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="38">
         <v>36</v>
       </c>
     </row>
@@ -4601,43 +4552,43 @@
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="13">
         <v>873347</v>
       </c>
       <c r="D46" s="3">
         <v>505946</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f t="shared" si="3"/>
         <v>52939</v>
       </c>
       <c r="F46" s="3">
         <v>1432232</v>
       </c>
-      <c r="G46" s="63">
-        <v>0</v>
-      </c>
-      <c r="H46" s="64">
-        <v>0</v>
-      </c>
-      <c r="I46" s="64">
-        <v>0</v>
-      </c>
-      <c r="J46" s="65">
+      <c r="G46" s="30">
+        <v>0</v>
+      </c>
+      <c r="H46" s="31">
+        <v>0</v>
+      </c>
+      <c r="I46" s="31">
+        <v>0</v>
+      </c>
+      <c r="J46" s="32">
         <f t="shared" si="4"/>
         <v>358058</v>
       </c>
-      <c r="K46" s="66">
+      <c r="K46" s="33">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L46" s="73">
-        <v>0</v>
-      </c>
-      <c r="M46" s="73">
-        <v>0</v>
-      </c>
-      <c r="N46" s="74">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="38">
         <v>4</v>
       </c>
     </row>
@@ -4648,43 +4599,43 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="13">
         <v>95830</v>
       </c>
       <c r="D47" s="3">
         <v>238827</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f t="shared" si="3"/>
         <v>36311</v>
       </c>
       <c r="F47" s="3">
         <v>370968</v>
       </c>
-      <c r="G47" s="63">
-        <v>0</v>
-      </c>
-      <c r="H47" s="64">
-        <v>0</v>
-      </c>
-      <c r="I47" s="64">
-        <v>0</v>
-      </c>
-      <c r="J47" s="65">
+      <c r="G47" s="30">
+        <v>0</v>
+      </c>
+      <c r="H47" s="31">
+        <v>0</v>
+      </c>
+      <c r="I47" s="31">
+        <v>0</v>
+      </c>
+      <c r="J47" s="32">
         <f t="shared" si="4"/>
         <v>370968</v>
       </c>
-      <c r="K47" s="66">
+      <c r="K47" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="73">
+      <c r="L47">
         <v>1</v>
       </c>
-      <c r="M47" s="73">
-        <v>0</v>
-      </c>
-      <c r="N47" s="74">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="38">
         <v>1</v>
       </c>
     </row>
@@ -4692,46 +4643,46 @@
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="13">
         <v>2047635</v>
       </c>
       <c r="D48" s="3">
         <v>2253974</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <f t="shared" si="3"/>
         <v>33827</v>
       </c>
       <c r="F48" s="3">
         <v>4335436</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="30">
         <v>289274</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="31">
         <v>1</v>
       </c>
-      <c r="I48" s="64">
-        <v>0</v>
-      </c>
-      <c r="J48" s="65">
+      <c r="I48" s="31">
+        <v>0</v>
+      </c>
+      <c r="J48" s="32">
         <f t="shared" si="4"/>
         <v>404616.2</v>
       </c>
-      <c r="K48" s="66">
+      <c r="K48" s="33">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L48" s="73">
+      <c r="L48">
         <v>7</v>
       </c>
-      <c r="M48" s="73">
-        <v>0</v>
-      </c>
-      <c r="N48" s="74">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="38">
         <v>11</v>
       </c>
     </row>
@@ -4742,43 +4693,43 @@
       <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="13">
         <v>1545436</v>
       </c>
       <c r="D49" s="3">
         <v>2340356</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <f t="shared" si="3"/>
         <v>58441</v>
       </c>
       <c r="F49" s="3">
         <v>3944233</v>
       </c>
-      <c r="G49" s="63">
+      <c r="G49" s="30">
         <v>340407</v>
       </c>
-      <c r="H49" s="64">
-        <v>0</v>
-      </c>
-      <c r="I49" s="64">
+      <c r="H49" s="31">
+        <v>0</v>
+      </c>
+      <c r="I49" s="31">
         <v>1</v>
       </c>
-      <c r="J49" s="65">
+      <c r="J49" s="32">
         <f t="shared" si="4"/>
         <v>400425.11111111112</v>
       </c>
-      <c r="K49" s="66">
+      <c r="K49" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L49" s="73">
+      <c r="L49">
         <v>7</v>
       </c>
-      <c r="M49" s="73">
-        <v>0</v>
-      </c>
-      <c r="N49" s="74">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="38">
         <v>10</v>
       </c>
     </row>
@@ -4789,43 +4740,43 @@
       <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="13">
         <v>514268</v>
       </c>
       <c r="D50" s="3">
         <v>246903</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="F50" s="3">
         <v>761385</v>
       </c>
-      <c r="G50" s="63">
-        <v>0</v>
-      </c>
-      <c r="H50" s="64">
-        <v>0</v>
-      </c>
-      <c r="I50" s="64">
-        <v>0</v>
-      </c>
-      <c r="J50" s="65">
+      <c r="G50" s="30">
+        <v>0</v>
+      </c>
+      <c r="H50" s="31">
+        <v>0</v>
+      </c>
+      <c r="I50" s="31">
+        <v>0</v>
+      </c>
+      <c r="J50" s="32">
         <f t="shared" si="4"/>
         <v>253795</v>
       </c>
-      <c r="K50" s="66">
+      <c r="K50" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L50" s="73">
-        <v>0</v>
-      </c>
-      <c r="M50" s="73">
-        <v>0</v>
-      </c>
-      <c r="N50" s="74">
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="38">
         <v>3</v>
       </c>
     </row>
@@ -4833,46 +4784,46 @@
       <c r="A51" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="13">
         <v>1661399</v>
       </c>
       <c r="D51" s="3">
         <v>1566671</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <f t="shared" si="3"/>
         <v>9981</v>
       </c>
       <c r="F51" s="3">
         <v>3238051</v>
       </c>
-      <c r="G51" s="63">
-        <v>0</v>
-      </c>
-      <c r="H51" s="64">
-        <v>0</v>
-      </c>
-      <c r="I51" s="64">
-        <v>0</v>
-      </c>
-      <c r="J51" s="65">
+      <c r="G51" s="30">
+        <v>0</v>
+      </c>
+      <c r="H51" s="31">
+        <v>0</v>
+      </c>
+      <c r="I51" s="31">
+        <v>0</v>
+      </c>
+      <c r="J51" s="32">
         <f t="shared" si="4"/>
         <v>404756.375</v>
       </c>
-      <c r="K51" s="66">
+      <c r="K51" s="33">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L51" s="73">
+      <c r="L51">
         <v>3</v>
       </c>
-      <c r="M51" s="73">
-        <v>0</v>
-      </c>
-      <c r="N51" s="74">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="38">
         <v>8</v>
       </c>
     </row>
@@ -4883,86 +4834,86 @@
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="13">
         <v>185732</v>
       </c>
       <c r="D52" s="3">
         <v>66576</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <f t="shared" si="3"/>
         <v>26195</v>
       </c>
       <c r="F52" s="3">
         <v>278503</v>
       </c>
-      <c r="G52" s="63">
-        <v>0</v>
-      </c>
-      <c r="H52" s="64">
-        <v>0</v>
-      </c>
-      <c r="I52" s="64">
-        <v>0</v>
-      </c>
-      <c r="J52" s="65">
+      <c r="G52" s="30">
+        <v>0</v>
+      </c>
+      <c r="H52" s="31">
+        <v>0</v>
+      </c>
+      <c r="I52" s="31">
+        <v>0</v>
+      </c>
+      <c r="J52" s="32">
         <f t="shared" si="4"/>
         <v>278503</v>
       </c>
-      <c r="K52" s="66">
+      <c r="K52" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L52" s="73">
-        <v>0</v>
-      </c>
-      <c r="M52" s="73">
-        <v>0</v>
-      </c>
-      <c r="N52" s="74">
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="23">
+      <c r="B54" s="5"/>
+      <c r="C54" s="16">
         <f>SUM(C3:C52)</f>
         <v>72466576</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="7">
         <f t="shared" ref="D54:F54" si="5">SUM(D3:D52)</f>
         <v>77122690</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
         <f t="shared" si="5"/>
         <v>3842139</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="7">
         <f t="shared" si="5"/>
         <v>153431405</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="16">
         <f>SUM(G3:G52)</f>
         <v>7669551</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="7">
         <f t="shared" ref="H54:I54" si="6">SUM(H3:H52)</f>
         <v>12</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="7">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="J54" s="50" t="s">
+      <c r="J54" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K54" s="18">
         <f>SUM(K3:K52)</f>
         <v>213</v>
       </c>
@@ -4978,47 +4929,47 @@
         <f t="shared" si="7"/>
         <v>435</v>
       </c>
-      <c r="O54" s="25"/>
+      <c r="O54" s="18"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="68">
+      <c r="B57" s="34"/>
+      <c r="C57" s="35">
         <v>72466576</v>
       </c>
-      <c r="D57" s="69">
+      <c r="D57" s="36">
         <f>77122690</f>
         <v>77122690</v>
       </c>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69">
+      <c r="E57" s="36"/>
+      <c r="F57" s="36">
         <v>153431405</v>
       </c>
-      <c r="G57" s="68"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="71">
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="29">
         <v>213</v>
       </c>
-      <c r="L57" s="67">
+      <c r="L57" s="34">
         <v>222</v>
       </c>
-      <c r="M57" s="72">
-        <v>0</v>
-      </c>
-      <c r="N57" s="67">
+      <c r="M57" s="34">
+        <v>0</v>
+      </c>
+      <c r="N57" s="34">
         <v>435</v>
       </c>
-      <c r="O57" s="62"/>
+      <c r="O57" s="29"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="13">
         <f>C54-C57</f>
         <v>0</v>
       </c>
@@ -5033,7 +4984,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="17">
         <f>K54-K57</f>
         <v>0</v>
       </c>
@@ -5041,7 +4992,7 @@
         <f>L54-L57</f>
         <v>0</v>
       </c>
-      <c r="M58" s="28">
+      <c r="M58">
         <f>M54-M57</f>
         <v>0</v>
       </c>
@@ -5074,2283 +5025,2222 @@
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="24"/>
-    <col min="6" max="6" width="10.83203125" style="29"/>
+    <col min="3" max="4" width="10.83203125" style="17"/>
+    <col min="6" max="6" width="10.83203125" style="19"/>
     <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="10.83203125" style="24"/>
-    <col min="11" max="11" width="52.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="17"/>
+    <col min="11" max="11" width="52.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="38" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="13">
         <v>253094</v>
       </c>
-      <c r="E3" s="56">
-        <v>0</v>
-      </c>
-      <c r="F3" s="57">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F65" si="0">G3-SUM(D3:E3)</f>
         <v>11066</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="3">
         <v>264160</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="17">
         <v>1</v>
       </c>
-      <c r="I3" s="59">
-        <v>0</v>
-      </c>
-      <c r="J3" s="59">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="13">
         <v>274160</v>
       </c>
-      <c r="E4" s="56">
-        <v>0</v>
-      </c>
-      <c r="F4" s="57">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>8101</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="3">
         <v>282261</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="17">
         <v>1</v>
       </c>
-      <c r="I4" s="59">
-        <v>0</v>
-      </c>
-      <c r="J4" s="59">
-        <v>0</v>
-      </c>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="55">
-        <v>0</v>
-      </c>
-      <c r="E5" s="56">
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>225742</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>6589</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="3">
         <v>232331</v>
       </c>
-      <c r="H5" s="58">
-        <v>0</v>
-      </c>
-      <c r="I5" s="59">
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="59">
-        <v>0</v>
-      </c>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="55">
-        <v>0</v>
-      </c>
-      <c r="E6" s="56">
-        <v>0</v>
-      </c>
-      <c r="F6" s="57">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="1">SUM(D6:E6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="58">
-        <v>0</v>
-      </c>
-      <c r="I6" s="59">
-        <v>0</v>
-      </c>
-      <c r="J6" s="59">
-        <v>0</v>
-      </c>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="55">
-        <v>0</v>
-      </c>
-      <c r="E7" s="56">
-        <v>0</v>
-      </c>
-      <c r="F7" s="57">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="58">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59">
-        <v>0</v>
-      </c>
-      <c r="J7" s="59">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="13">
         <v>237596</v>
       </c>
-      <c r="E8" s="56">
-        <v>0</v>
-      </c>
-      <c r="F8" s="57">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>237596</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="17">
         <v>1</v>
       </c>
-      <c r="I8" s="59">
-        <v>0</v>
-      </c>
-      <c r="J8" s="59">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="55">
-        <v>0</v>
-      </c>
-      <c r="E9" s="56">
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>362950</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>362950</v>
       </c>
-      <c r="H9" s="58">
-        <v>0</v>
-      </c>
-      <c r="I9" s="59">
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="59">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="55">
-        <v>0</v>
-      </c>
-      <c r="E10" s="56">
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>344139</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="6">
         <f t="shared" ref="F10:F14" si="2">G10-SUM(D10:E10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>344139</v>
       </c>
-      <c r="H10" s="58">
-        <v>0</v>
-      </c>
-      <c r="I10" s="59">
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="55">
-        <v>0</v>
-      </c>
-      <c r="E11" s="56">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>210944</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>210944</v>
       </c>
-      <c r="H11" s="58">
-        <v>0</v>
-      </c>
-      <c r="I11" s="59">
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="59">
-        <v>0</v>
-      </c>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="55">
-        <v>0</v>
-      </c>
-      <c r="E12" s="56">
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>205346</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="3">
         <f>SUM(D12:E12)</f>
         <v>205346</v>
       </c>
-      <c r="H12" s="58">
-        <v>0</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="59">
-        <v>0</v>
-      </c>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="55">
-        <v>0</v>
-      </c>
-      <c r="E13" s="56">
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>256206</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="3">
         <f t="shared" ref="G13:G65" si="3">SUM(D13:E13)</f>
         <v>256206</v>
       </c>
-      <c r="H13" s="58">
-        <v>0</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="59">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="55">
-        <v>0</v>
-      </c>
-      <c r="E14" s="56">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>206036</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="3">
         <f t="shared" si="3"/>
         <v>206036</v>
       </c>
-      <c r="H14" s="58">
-        <v>0</v>
-      </c>
-      <c r="I14" s="59">
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="59">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="55">
-        <v>0</v>
-      </c>
-      <c r="E15" s="56">
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>334858</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="6">
         <f t="shared" ref="F15" si="4">G15-SUM(D15:E15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="3">
         <f t="shared" ref="G15" si="5">SUM(D15:E15)</f>
         <v>334858</v>
       </c>
-      <c r="H15" s="58">
-        <v>0</v>
-      </c>
-      <c r="I15" s="59">
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="59">
-        <v>0</v>
-      </c>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="55">
-        <v>0</v>
-      </c>
-      <c r="E16" s="56">
-        <v>0</v>
-      </c>
-      <c r="F16" s="57">
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="58">
-        <v>0</v>
-      </c>
-      <c r="I16" s="59">
-        <v>0</v>
-      </c>
-      <c r="J16" s="59">
-        <v>0</v>
-      </c>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="55">
-        <v>0</v>
-      </c>
-      <c r="E17" s="56">
-        <v>0</v>
-      </c>
-      <c r="F17" s="57">
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="58">
-        <v>0</v>
-      </c>
-      <c r="I17" s="59">
-        <v>0</v>
-      </c>
-      <c r="J17" s="59">
-        <v>0</v>
-      </c>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="55">
-        <v>0</v>
-      </c>
-      <c r="E18" s="56">
-        <v>0</v>
-      </c>
-      <c r="F18" s="57">
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="58">
-        <v>0</v>
-      </c>
-      <c r="I18" s="59">
-        <v>0</v>
-      </c>
-      <c r="J18" s="59">
-        <v>0</v>
-      </c>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="13">
         <v>305337</v>
       </c>
-      <c r="E19" s="56">
-        <v>0</v>
-      </c>
-      <c r="F19" s="57">
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>6662</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="3">
         <v>311999</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="17">
         <v>1</v>
       </c>
-      <c r="I19" s="59">
-        <v>0</v>
-      </c>
-      <c r="J19" s="59">
-        <v>0</v>
-      </c>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="55">
-        <v>0</v>
-      </c>
-      <c r="E20" s="56">
-        <v>0</v>
-      </c>
-      <c r="F20" s="57">
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" ref="F20" si="6">G20-SUM(D20:E20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="3">
         <f t="shared" ref="G20" si="7">SUM(D20:E20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="58">
+      <c r="H20" s="17">
         <v>1</v>
       </c>
-      <c r="I20" s="59">
-        <v>0</v>
-      </c>
-      <c r="J20" s="59">
-        <v>0</v>
-      </c>
-      <c r="K20" s="27" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="55">
-        <v>0</v>
-      </c>
-      <c r="E21" s="56">
-        <v>0</v>
-      </c>
-      <c r="F21" s="57">
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="58">
-        <v>0</v>
-      </c>
-      <c r="I21" s="59">
-        <v>0</v>
-      </c>
-      <c r="J21" s="59">
-        <v>0</v>
-      </c>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="55">
-        <v>0</v>
-      </c>
-      <c r="E22" s="56">
-        <v>0</v>
-      </c>
-      <c r="F22" s="57">
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="58">
-        <v>0</v>
-      </c>
-      <c r="I22" s="59">
-        <v>0</v>
-      </c>
-      <c r="J22" s="59">
-        <v>0</v>
-      </c>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="55">
-        <v>0</v>
-      </c>
-      <c r="E23" s="56">
-        <v>0</v>
-      </c>
-      <c r="F23" s="57">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="58">
-        <v>0</v>
-      </c>
-      <c r="I23" s="59">
-        <v>0</v>
-      </c>
-      <c r="J23" s="59">
-        <v>0</v>
-      </c>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="55">
-        <v>0</v>
-      </c>
-      <c r="E24" s="56">
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>186251</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>68327</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="3">
         <v>254578</v>
       </c>
-      <c r="H24" s="58">
-        <v>0</v>
-      </c>
-      <c r="I24" s="59">
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" s="59">
-        <v>0</v>
-      </c>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="55">
-        <v>0</v>
-      </c>
-      <c r="E25" s="56">
-        <v>0</v>
-      </c>
-      <c r="F25" s="57">
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="58">
-        <v>0</v>
-      </c>
-      <c r="I25" s="59">
-        <v>0</v>
-      </c>
-      <c r="J25" s="59">
-        <v>0</v>
-      </c>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="55">
-        <v>0</v>
-      </c>
-      <c r="E26" s="56">
-        <v>0</v>
-      </c>
-      <c r="F26" s="57">
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="58">
-        <v>0</v>
-      </c>
-      <c r="I26" s="59">
-        <v>0</v>
-      </c>
-      <c r="J26" s="59">
-        <v>0</v>
-      </c>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="55">
-        <v>0</v>
-      </c>
-      <c r="E27" s="56">
-        <v>0</v>
-      </c>
-      <c r="F27" s="57">
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="58">
-        <v>0</v>
-      </c>
-      <c r="I27" s="59">
-        <v>0</v>
-      </c>
-      <c r="J27" s="59">
-        <v>0</v>
-      </c>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="55">
-        <v>0</v>
-      </c>
-      <c r="E28" s="56">
-        <v>0</v>
-      </c>
-      <c r="F28" s="57">
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="58">
-        <v>0</v>
-      </c>
-      <c r="I28" s="59">
-        <v>0</v>
-      </c>
-      <c r="J28" s="59">
-        <v>0</v>
-      </c>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="55">
-        <v>0</v>
-      </c>
-      <c r="E29" s="56">
-        <v>0</v>
-      </c>
-      <c r="F29" s="57">
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="58">
-        <v>0</v>
-      </c>
-      <c r="I29" s="59">
-        <v>0</v>
-      </c>
-      <c r="J29" s="59">
-        <v>0</v>
-      </c>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="55">
-        <v>0</v>
-      </c>
-      <c r="E30" s="56">
-        <v>0</v>
-      </c>
-      <c r="F30" s="57">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="58">
-        <v>0</v>
-      </c>
-      <c r="I30" s="59">
-        <v>0</v>
-      </c>
-      <c r="J30" s="59">
-        <v>0</v>
-      </c>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="G30" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="55">
-        <v>0</v>
-      </c>
-      <c r="E31" s="56">
-        <v>0</v>
-      </c>
-      <c r="F31" s="57">
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="58">
-        <v>0</v>
-      </c>
-      <c r="I31" s="59">
-        <v>0</v>
-      </c>
-      <c r="J31" s="59">
-        <v>0</v>
-      </c>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="55">
-        <v>0</v>
-      </c>
-      <c r="E32" s="56">
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>275376</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>97340</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="3">
         <v>372716</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="17">
         <v>1</v>
       </c>
-      <c r="I32" s="59">
-        <v>0</v>
-      </c>
-      <c r="J32" s="59">
-        <v>0</v>
-      </c>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="55">
-        <v>0</v>
-      </c>
-      <c r="E33" s="56">
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>286896</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="6">
         <f t="shared" ref="F33:F35" si="8">G33-SUM(D33:E33)</f>
         <v>101314</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="3">
         <v>388210</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="17">
         <v>1</v>
       </c>
-      <c r="I33" s="59">
-        <v>0</v>
-      </c>
-      <c r="J33" s="59">
-        <v>0</v>
-      </c>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="55">
-        <v>0</v>
-      </c>
-      <c r="E34" s="56">
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
         <v>267362</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="6">
         <f t="shared" si="8"/>
         <v>59475</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="3">
         <v>326837</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="17">
         <v>1</v>
       </c>
-      <c r="I34" s="59">
-        <v>0</v>
-      </c>
-      <c r="J34" s="59">
-        <v>0</v>
-      </c>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="55">
-        <v>0</v>
-      </c>
-      <c r="E35" s="56">
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>310940</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="6">
         <f t="shared" si="8"/>
         <v>122605</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="3">
         <v>433545</v>
       </c>
-      <c r="H35" s="58">
+      <c r="H35" s="17">
         <v>1</v>
       </c>
-      <c r="I35" s="59">
-        <v>0</v>
-      </c>
-      <c r="J35" s="59">
-        <v>0</v>
-      </c>
-      <c r="K35" s="27"/>
-    </row>
-    <row r="36" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="55">
-        <v>0</v>
-      </c>
-      <c r="E36" s="56">
-        <v>0</v>
-      </c>
-      <c r="F36" s="57">
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="58">
-        <v>0</v>
-      </c>
-      <c r="I36" s="59">
-        <v>0</v>
-      </c>
-      <c r="J36" s="59">
-        <v>0</v>
-      </c>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
+      <c r="G36" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="55">
-        <v>0</v>
-      </c>
-      <c r="E37" s="56">
-        <v>0</v>
-      </c>
-      <c r="F37" s="57">
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="58">
-        <v>0</v>
-      </c>
-      <c r="I37" s="59">
-        <v>0</v>
-      </c>
-      <c r="J37" s="59">
-        <v>0</v>
-      </c>
-      <c r="K37" s="27"/>
-    </row>
-    <row r="38" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
+      <c r="G37" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="13">
         <v>255971</v>
       </c>
-      <c r="E38" s="56">
-        <v>0</v>
-      </c>
-      <c r="F38" s="57">
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="3">
         <f t="shared" si="3"/>
         <v>255971</v>
       </c>
-      <c r="H38" s="58">
+      <c r="H38" s="17">
         <v>1</v>
       </c>
-      <c r="I38" s="59">
-        <v>0</v>
-      </c>
-      <c r="J38" s="59">
-        <v>0</v>
-      </c>
-      <c r="K38" s="27"/>
-    </row>
-    <row r="39" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="55">
-        <v>0</v>
-      </c>
-      <c r="E39" s="56">
-        <v>0</v>
-      </c>
-      <c r="F39" s="57">
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="58">
-        <v>0</v>
-      </c>
-      <c r="I39" s="59">
-        <v>0</v>
-      </c>
-      <c r="J39" s="59">
-        <v>0</v>
-      </c>
-      <c r="K39" s="27"/>
-    </row>
-    <row r="40" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="G39" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="55">
-        <v>0</v>
-      </c>
-      <c r="E40" s="56">
-        <v>0</v>
-      </c>
-      <c r="F40" s="57">
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="58">
-        <v>0</v>
-      </c>
-      <c r="I40" s="59">
-        <v>0</v>
-      </c>
-      <c r="J40" s="59">
-        <v>0</v>
-      </c>
-      <c r="K40" s="27"/>
-    </row>
-    <row r="41" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="G40" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="55">
-        <v>0</v>
-      </c>
-      <c r="E41" s="56">
-        <v>0</v>
-      </c>
-      <c r="F41" s="57">
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="58">
-        <v>0</v>
-      </c>
-      <c r="I41" s="59">
-        <v>0</v>
-      </c>
-      <c r="J41" s="59">
-        <v>0</v>
-      </c>
-      <c r="K41" s="27"/>
-    </row>
-    <row r="42" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
+      <c r="G41" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="55">
-        <v>0</v>
-      </c>
-      <c r="E42" s="56">
-        <v>0</v>
-      </c>
-      <c r="F42" s="57">
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="58">
-        <v>0</v>
-      </c>
-      <c r="I42" s="59">
-        <v>0</v>
-      </c>
-      <c r="J42" s="59">
-        <v>0</v>
-      </c>
-      <c r="K42" s="27"/>
-    </row>
-    <row r="43" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="53" t="s">
+      <c r="G42" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="55">
-        <v>0</v>
-      </c>
-      <c r="E43" s="56">
-        <v>0</v>
-      </c>
-      <c r="F43" s="57">
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="58">
-        <v>0</v>
-      </c>
-      <c r="I43" s="59">
-        <v>0</v>
-      </c>
-      <c r="J43" s="59">
-        <v>0</v>
-      </c>
-      <c r="K43" s="27"/>
-    </row>
-    <row r="44" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53" t="s">
+      <c r="G43" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="55">
-        <v>0</v>
-      </c>
-      <c r="E44" s="56">
-        <v>0</v>
-      </c>
-      <c r="F44" s="57">
+      <c r="D44" s="13">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="58">
-        <v>0</v>
-      </c>
-      <c r="I44" s="59">
-        <v>0</v>
-      </c>
-      <c r="J44" s="59">
-        <v>0</v>
-      </c>
-      <c r="K44" s="27"/>
-    </row>
-    <row r="45" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="53" t="s">
+      <c r="G44" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="55">
-        <v>0</v>
-      </c>
-      <c r="E45" s="56">
-        <v>0</v>
-      </c>
-      <c r="F45" s="57">
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="58">
-        <v>0</v>
-      </c>
-      <c r="I45" s="59">
-        <v>0</v>
-      </c>
-      <c r="J45" s="59">
-        <v>0</v>
-      </c>
-      <c r="K45" s="27"/>
-    </row>
-    <row r="46" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="53" t="s">
+      <c r="G45" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="55">
-        <v>0</v>
-      </c>
-      <c r="E46" s="56">
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>229125</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="6">
         <f t="shared" si="0"/>
         <v>48784</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="3">
         <v>277909</v>
       </c>
-      <c r="H46" s="58">
-        <v>0</v>
-      </c>
-      <c r="I46" s="59">
+      <c r="H46" s="17">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46" s="59">
-        <v>0</v>
-      </c>
-      <c r="K46" s="27" t="s">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="55">
-        <v>0</v>
-      </c>
-      <c r="E47" s="56">
+      <c r="D47" s="13">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>218471</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="6">
         <f t="shared" ref="F47" si="9">G47-SUM(D47:E47)</f>
         <v>47589</v>
       </c>
-      <c r="G47" s="56">
+      <c r="G47" s="3">
         <v>266060</v>
       </c>
-      <c r="H47" s="58">
-        <v>0</v>
-      </c>
-      <c r="I47" s="59">
+      <c r="H47" s="17">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47" s="59">
-        <v>0</v>
-      </c>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="55">
-        <v>0</v>
-      </c>
-      <c r="E48" s="56">
+      <c r="D48" s="13">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>341457</v>
       </c>
-      <c r="F48" s="57">
+      <c r="F48" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="56">
+      <c r="G48" s="3">
         <f t="shared" si="3"/>
         <v>341457</v>
       </c>
-      <c r="H48" s="58">
-        <v>0</v>
-      </c>
-      <c r="I48" s="59">
+      <c r="H48" s="17">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48" s="59">
-        <v>0</v>
-      </c>
-      <c r="K48" s="27"/>
-    </row>
-    <row r="49" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="53" t="s">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="55">
-        <v>0</v>
-      </c>
-      <c r="E49" s="56">
-        <v>0</v>
-      </c>
-      <c r="F49" s="57">
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="58">
-        <v>0</v>
-      </c>
-      <c r="I49" s="59">
-        <v>0</v>
-      </c>
-      <c r="J49" s="59">
-        <v>0</v>
-      </c>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="53" t="s">
+      <c r="G49" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="55">
-        <v>0</v>
-      </c>
-      <c r="E50" s="56">
-        <v>0</v>
-      </c>
-      <c r="F50" s="57">
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="58">
-        <v>0</v>
-      </c>
-      <c r="I50" s="59">
-        <v>0</v>
-      </c>
-      <c r="J50" s="59">
-        <v>0</v>
-      </c>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
+      <c r="G50" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="17">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="55">
-        <v>0</v>
-      </c>
-      <c r="E51" s="56">
-        <v>0</v>
-      </c>
-      <c r="F51" s="57">
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="58">
-        <v>0</v>
-      </c>
-      <c r="I51" s="59">
-        <v>0</v>
-      </c>
-      <c r="J51" s="59">
-        <v>0</v>
-      </c>
-      <c r="K51" s="27"/>
-    </row>
-    <row r="52" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="53" t="s">
+      <c r="G51" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="55">
-        <v>0</v>
-      </c>
-      <c r="E52" s="56">
-        <v>0</v>
-      </c>
-      <c r="F52" s="57">
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="58">
-        <v>0</v>
-      </c>
-      <c r="I52" s="59">
-        <v>0</v>
-      </c>
-      <c r="J52" s="59">
-        <v>0</v>
-      </c>
-      <c r="K52" s="27"/>
-    </row>
-    <row r="53" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
+      <c r="G52" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="17">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="55">
-        <v>0</v>
-      </c>
-      <c r="E53" s="56">
-        <v>0</v>
-      </c>
-      <c r="F53" s="57">
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="58">
-        <v>0</v>
-      </c>
-      <c r="I53" s="59">
-        <v>0</v>
-      </c>
-      <c r="J53" s="59">
-        <v>0</v>
-      </c>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="54" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
+      <c r="G53" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="55">
-        <v>0</v>
-      </c>
-      <c r="E54" s="56">
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>158550</v>
       </c>
-      <c r="F54" s="57">
+      <c r="F54" s="6">
         <f t="shared" si="0"/>
         <v>65310</v>
       </c>
-      <c r="G54" s="56">
+      <c r="G54" s="3">
         <v>223860</v>
       </c>
-      <c r="H54" s="58">
-        <v>0</v>
-      </c>
-      <c r="I54" s="59">
+      <c r="H54" s="17">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54" s="59">
-        <v>0</v>
-      </c>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="55">
-        <v>0</v>
-      </c>
-      <c r="E55" s="56">
-        <v>0</v>
-      </c>
-      <c r="F55" s="57">
+      <c r="D55" s="13">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="58">
-        <v>0</v>
-      </c>
-      <c r="I55" s="59">
-        <v>0</v>
-      </c>
-      <c r="J55" s="59">
-        <v>0</v>
-      </c>
-      <c r="K55" s="27"/>
-    </row>
-    <row r="56" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="53" t="s">
+      <c r="G55" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="17">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D56" s="13">
         <v>321984</v>
       </c>
-      <c r="E56" s="56">
-        <v>0</v>
-      </c>
-      <c r="F56" s="57">
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
         <f t="shared" si="0"/>
         <v>75748</v>
       </c>
-      <c r="G56" s="56">
+      <c r="G56" s="3">
         <v>397732</v>
       </c>
-      <c r="H56" s="58">
+      <c r="H56" s="17">
         <v>1</v>
       </c>
-      <c r="I56" s="59">
-        <v>0</v>
-      </c>
-      <c r="J56" s="59">
-        <v>0</v>
-      </c>
-      <c r="K56" s="27"/>
-    </row>
-    <row r="57" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="53" t="s">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="55">
-        <v>0</v>
-      </c>
-      <c r="E57" s="56">
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>252155</v>
       </c>
-      <c r="F57" s="57">
+      <c r="F57" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G57" s="56">
+      <c r="G57" s="3">
         <v>252169</v>
       </c>
-      <c r="H57" s="58">
-        <v>0</v>
-      </c>
-      <c r="I57" s="59">
+      <c r="H57" s="17">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57" s="59">
-        <v>0</v>
-      </c>
-      <c r="K57" s="27"/>
-    </row>
-    <row r="58" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="53" t="s">
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="55">
-        <v>0</v>
-      </c>
-      <c r="E58" s="56">
-        <v>0</v>
-      </c>
-      <c r="F58" s="57">
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="58">
-        <v>0</v>
-      </c>
-      <c r="I58" s="59">
-        <v>0</v>
-      </c>
-      <c r="J58" s="59">
-        <v>0</v>
-      </c>
-      <c r="K58" s="27"/>
-    </row>
-    <row r="59" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53" t="s">
+      <c r="G58" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="17">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="55">
-        <v>0</v>
-      </c>
-      <c r="E59" s="56">
-        <v>0</v>
-      </c>
-      <c r="F59" s="57">
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="58">
-        <v>0</v>
-      </c>
-      <c r="I59" s="59">
-        <v>0</v>
-      </c>
-      <c r="J59" s="59">
-        <v>0</v>
-      </c>
-      <c r="K59" s="27"/>
-    </row>
-    <row r="60" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53" t="s">
+      <c r="G59" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="17">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="55">
-        <v>0</v>
-      </c>
-      <c r="E60" s="56">
-        <v>0</v>
-      </c>
-      <c r="F60" s="57">
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="58">
-        <v>0</v>
-      </c>
-      <c r="I60" s="59">
-        <v>0</v>
-      </c>
-      <c r="J60" s="59">
-        <v>0</v>
-      </c>
-      <c r="K60" s="27"/>
-    </row>
-    <row r="61" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="53" t="s">
+      <c r="G60" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D61" s="13">
         <v>271851</v>
       </c>
-      <c r="E61" s="56">
-        <v>0</v>
-      </c>
-      <c r="F61" s="57">
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
         <f t="shared" si="0"/>
         <v>17423</v>
       </c>
-      <c r="G61" s="56">
+      <c r="G61" s="3">
         <v>289274</v>
       </c>
-      <c r="H61" s="58">
+      <c r="H61" s="17">
         <v>1</v>
       </c>
-      <c r="I61" s="59">
-        <v>0</v>
-      </c>
-      <c r="J61" s="59">
-        <v>0</v>
-      </c>
-      <c r="K61" s="27"/>
-    </row>
-    <row r="62" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="53" t="s">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="55">
-        <v>0</v>
-      </c>
-      <c r="E62" s="56">
+      <c r="D62" s="13">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>288977</v>
       </c>
-      <c r="F62" s="57">
+      <c r="F62" s="6">
         <f t="shared" si="0"/>
         <v>51430</v>
       </c>
-      <c r="G62" s="56">
+      <c r="G62" s="3">
         <v>340407</v>
       </c>
-      <c r="H62" s="58">
-        <v>0</v>
-      </c>
-      <c r="I62" s="59">
+      <c r="H62" s="17">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62" s="59">
-        <v>0</v>
-      </c>
-      <c r="K62" s="27"/>
-    </row>
-    <row r="63" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="53" t="s">
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="55">
-        <v>0</v>
-      </c>
-      <c r="E63" s="56">
-        <v>0</v>
-      </c>
-      <c r="F63" s="57">
+      <c r="D63" s="13">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="58">
-        <v>0</v>
-      </c>
-      <c r="I63" s="59">
-        <v>0</v>
-      </c>
-      <c r="J63" s="59">
-        <v>0</v>
-      </c>
-      <c r="K63" s="27"/>
-    </row>
-    <row r="64" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="53" t="s">
+      <c r="G63" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="17">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="55">
-        <v>0</v>
-      </c>
-      <c r="E64" s="56">
-        <v>0</v>
-      </c>
-      <c r="F64" s="57">
+      <c r="D64" s="13">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="58">
-        <v>0</v>
-      </c>
-      <c r="I64" s="59">
-        <v>0</v>
-      </c>
-      <c r="J64" s="59">
-        <v>0</v>
-      </c>
-      <c r="K64" s="27"/>
-    </row>
-    <row r="65" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="53" t="s">
+      <c r="G64" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="55">
-        <v>0</v>
-      </c>
-      <c r="E65" s="56">
-        <v>0</v>
-      </c>
-      <c r="F65" s="57">
+      <c r="D65" s="13">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="58">
-        <v>0</v>
-      </c>
-      <c r="I65" s="59">
-        <v>0</v>
-      </c>
-      <c r="J65" s="59">
-        <v>0</v>
-      </c>
-      <c r="K65" s="27"/>
+      <c r="G65" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="17">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="31">
+      <c r="C67" s="18"/>
+      <c r="D67" s="16">
         <f t="shared" ref="D67:J67" si="10">SUM(D3:D65)</f>
         <v>1919993</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="7">
         <f t="shared" si="10"/>
         <v>4961781</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="7">
         <f t="shared" si="10"/>
         <v>787777</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G67" s="7">
         <f t="shared" si="10"/>
         <v>7669551</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H67" s="18">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
@@ -7362,13 +7252,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K67" s="25"/>
+      <c r="K67" s="18"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C69" s="61"/>
+      <c r="C69" s="28"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C70" s="61"/>
+      <c r="C70" s="28"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7380,9 +7270,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:F56"/>
+  <dimension ref="A3:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E53" sqref="C4:E53"/>
     </sheetView>
   </sheetViews>
@@ -7396,11 +7286,11 @@
     <col min="6" max="6" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7413,7 +7303,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7423,15 +7313,14 @@
       <c r="C4" s="3">
         <v>778752</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="45"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7441,15 +7330,14 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="45">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
-        <v>0</v>
-      </c>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -7459,15 +7347,14 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="45">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0</v>
-      </c>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7477,15 +7364,14 @@
       <c r="C7" s="3">
         <v>237596</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7495,15 +7381,14 @@
       <c r="C8" s="3">
         <v>1920479</v>
       </c>
-      <c r="D8" s="45">
-        <v>0</v>
-      </c>
-      <c r="E8" s="45">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -7513,15 +7398,14 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="45">
-        <v>0</v>
-      </c>
-      <c r="E9" s="45">
-        <v>0</v>
-      </c>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -7531,15 +7415,14 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="45">
-        <v>0</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0</v>
-      </c>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -7549,15 +7432,14 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="45">
-        <v>0</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0</v>
-      </c>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -7567,15 +7449,14 @@
       <c r="C12" s="3">
         <v>311999</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="45">
-        <v>0</v>
-      </c>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -7585,15 +7466,14 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="45">
-        <v>0</v>
-      </c>
-      <c r="E13" s="45">
-        <v>0</v>
-      </c>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -7603,15 +7483,14 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="45">
-        <v>0</v>
-      </c>
-      <c r="E14" s="45">
-        <v>0</v>
-      </c>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -7621,15 +7500,14 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="45">
-        <v>0</v>
-      </c>
-      <c r="E15" s="45">
-        <v>0</v>
-      </c>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -7639,15 +7517,14 @@
       <c r="C16" s="3">
         <v>254578</v>
       </c>
-      <c r="D16" s="45">
-        <v>0</v>
-      </c>
-      <c r="E16" s="45">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -7657,15 +7534,14 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="45">
-        <v>0</v>
-      </c>
-      <c r="E17" s="45">
-        <v>0</v>
-      </c>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -7675,15 +7551,14 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="45">
-        <v>0</v>
-      </c>
-      <c r="E18" s="45">
-        <v>0</v>
-      </c>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -7693,15 +7568,14 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="45">
-        <v>0</v>
-      </c>
-      <c r="E19" s="45">
-        <v>0</v>
-      </c>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -7711,15 +7585,14 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="45">
-        <v>0</v>
-      </c>
-      <c r="E20" s="45">
-        <v>0</v>
-      </c>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -7729,15 +7602,14 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="D21" s="45">
-        <v>0</v>
-      </c>
-      <c r="E21" s="45">
-        <v>0</v>
-      </c>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -7747,15 +7619,14 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="45">
-        <v>0</v>
-      </c>
-      <c r="E22" s="45">
-        <v>0</v>
-      </c>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -7765,15 +7636,14 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="45">
-        <v>0</v>
-      </c>
-      <c r="E23" s="45">
-        <v>0</v>
-      </c>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -7783,15 +7653,14 @@
       <c r="C24" s="3">
         <v>1521308</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="45">
-        <v>0</v>
-      </c>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -7801,15 +7670,14 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="45">
-        <v>0</v>
-      </c>
-      <c r="E25" s="45">
-        <v>0</v>
-      </c>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7819,15 +7687,14 @@
       <c r="C26" s="3">
         <v>0</v>
       </c>
-      <c r="D26" s="45">
-        <v>0</v>
-      </c>
-      <c r="E26" s="45">
-        <v>0</v>
-      </c>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -7837,15 +7704,14 @@
       <c r="C27" s="3">
         <v>255971</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="45">
-        <v>0</v>
-      </c>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -7855,15 +7721,14 @@
       <c r="C28" s="3">
         <v>0</v>
       </c>
-      <c r="D28" s="45">
-        <v>0</v>
-      </c>
-      <c r="E28" s="45">
-        <v>0</v>
-      </c>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -7873,15 +7738,14 @@
       <c r="C29" s="3">
         <v>0</v>
       </c>
-      <c r="D29" s="45">
-        <v>0</v>
-      </c>
-      <c r="E29" s="45">
-        <v>0</v>
-      </c>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -7891,15 +7755,14 @@
       <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="D30" s="45">
-        <v>0</v>
-      </c>
-      <c r="E30" s="45">
-        <v>0</v>
-      </c>
-      <c r="F30" s="45"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -7909,15 +7772,14 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-      <c r="D31" s="45">
-        <v>0</v>
-      </c>
-      <c r="E31" s="45">
-        <v>0</v>
-      </c>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -7927,15 +7789,14 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="D32" s="45">
-        <v>0</v>
-      </c>
-      <c r="E32" s="45">
-        <v>0</v>
-      </c>
-      <c r="F32" s="45"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -7945,15 +7806,14 @@
       <c r="C33" s="3">
         <v>0</v>
       </c>
-      <c r="D33" s="45">
-        <v>0</v>
-      </c>
-      <c r="E33" s="45">
-        <v>0</v>
-      </c>
-      <c r="F33" s="45"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -7963,15 +7823,14 @@
       <c r="C34" s="3">
         <v>0</v>
       </c>
-      <c r="D34" s="45">
-        <v>0</v>
-      </c>
-      <c r="E34" s="45">
-        <v>0</v>
-      </c>
-      <c r="F34" s="45"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -7981,15 +7840,14 @@
       <c r="C35" s="3">
         <v>543969</v>
       </c>
-      <c r="D35" s="45">
-        <v>0</v>
-      </c>
-      <c r="E35" s="45">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="45"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -7999,15 +7857,14 @@
       <c r="C36" s="3">
         <v>341457</v>
       </c>
-      <c r="D36" s="45">
-        <v>0</v>
-      </c>
-      <c r="E36" s="45">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="45"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -8017,15 +7874,14 @@
       <c r="C37" s="3">
         <v>0</v>
       </c>
-      <c r="D37" s="45">
-        <v>0</v>
-      </c>
-      <c r="E37" s="45">
-        <v>0</v>
-      </c>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -8035,15 +7891,14 @@
       <c r="C38" s="3">
         <v>0</v>
       </c>
-      <c r="D38" s="45">
-        <v>0</v>
-      </c>
-      <c r="E38" s="45">
-        <v>0</v>
-      </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -8053,15 +7908,14 @@
       <c r="C39" s="3">
         <v>0</v>
       </c>
-      <c r="D39" s="45">
-        <v>0</v>
-      </c>
-      <c r="E39" s="45">
-        <v>0</v>
-      </c>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -8071,15 +7925,14 @@
       <c r="C40" s="3">
         <v>0</v>
       </c>
-      <c r="D40" s="45">
-        <v>0</v>
-      </c>
-      <c r="E40" s="45">
-        <v>0</v>
-      </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -8089,15 +7942,14 @@
       <c r="C41" s="3">
         <v>0</v>
       </c>
-      <c r="D41" s="45">
-        <v>0</v>
-      </c>
-      <c r="E41" s="45">
-        <v>0</v>
-      </c>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -8107,15 +7959,14 @@
       <c r="C42" s="3">
         <v>223860</v>
       </c>
-      <c r="D42" s="45">
-        <v>0</v>
-      </c>
-      <c r="E42" s="45">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -8125,15 +7976,14 @@
       <c r="C43" s="3">
         <v>0</v>
       </c>
-      <c r="D43" s="45">
-        <v>0</v>
-      </c>
-      <c r="E43" s="45">
-        <v>0</v>
-      </c>
-      <c r="F43" s="45"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -8143,15 +7993,14 @@
       <c r="C44" s="3">
         <v>397732</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="45">
-        <v>0</v>
-      </c>
-      <c r="F44" s="45"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -8161,15 +8010,14 @@
       <c r="C45" s="3">
         <v>252169</v>
       </c>
-      <c r="D45" s="45">
-        <v>0</v>
-      </c>
-      <c r="E45" s="45">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -8179,15 +8027,14 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-      <c r="D46" s="45">
-        <v>0</v>
-      </c>
-      <c r="E46" s="45">
-        <v>0</v>
-      </c>
-      <c r="F46" s="45"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -8197,15 +8044,14 @@
       <c r="C47" s="3">
         <v>0</v>
       </c>
-      <c r="D47" s="45">
-        <v>0</v>
-      </c>
-      <c r="E47" s="45">
-        <v>0</v>
-      </c>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -8215,15 +8061,14 @@
       <c r="C48" s="3">
         <v>0</v>
       </c>
-      <c r="D48" s="45">
-        <v>0</v>
-      </c>
-      <c r="E48" s="45">
-        <v>0</v>
-      </c>
-      <c r="F48" s="45"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -8233,15 +8078,14 @@
       <c r="C49" s="3">
         <v>289274</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="45">
-        <v>0</v>
-      </c>
-      <c r="F49" s="45"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -8251,15 +8095,14 @@
       <c r="C50" s="3">
         <v>340407</v>
       </c>
-      <c r="D50" s="45">
-        <v>0</v>
-      </c>
-      <c r="E50" s="45">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" s="45"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -8269,15 +8112,14 @@
       <c r="C51" s="3">
         <v>0</v>
       </c>
-      <c r="D51" s="45">
-        <v>0</v>
-      </c>
-      <c r="E51" s="45">
-        <v>0</v>
-      </c>
-      <c r="F51" s="45"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -8287,15 +8129,14 @@
       <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="45">
-        <v>0</v>
-      </c>
-      <c r="E52" s="45">
-        <v>0</v>
-      </c>
-      <c r="F52" s="45"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -8305,36 +8146,35 @@
       <c r="C53" s="3">
         <v>0</v>
       </c>
-      <c r="D53" s="45">
-        <v>0</v>
-      </c>
-      <c r="E53" s="45">
-        <v>0</v>
-      </c>
-      <c r="F53" s="45"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="3">
         <v>7669551</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54">
         <v>12</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54">
         <v>15</v>
       </c>
-      <c r="F54" s="45"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C56"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD681CE-282F-2A4C-99EA-64FE72DA8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E70878-F694-CC4F-9F09-EC096F99B275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="7980" windowWidth="23580" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="6" r:id="rId2"/>
     <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
+    <sheet name="RESULTS" sheetId="7" r:id="rId4"/>
+    <sheet name="UNCONTESTED" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
@@ -23,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="167">
   <si>
     <t>State</t>
   </si>
@@ -512,6 +514,42 @@
   </si>
   <si>
     <t>One one seat and it was uncontested.</t>
+  </si>
+  <si>
+    <t>Properly attributed these wins to D's.</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>REP_V</t>
+  </si>
+  <si>
+    <t>DEM_V</t>
+  </si>
+  <si>
+    <t>OTH_V</t>
+  </si>
+  <si>
+    <t>TOT_V</t>
+  </si>
+  <si>
+    <t>REP_S</t>
+  </si>
+  <si>
+    <t>DEM_S</t>
+  </si>
+  <si>
+    <t>OTH_S</t>
+  </si>
+  <si>
+    <t>TOT_S</t>
+  </si>
+  <si>
+    <t>DISTRICT</t>
   </si>
 </sst>
 </file>
@@ -694,7 +732,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -748,6 +786,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1764,7 +1804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2413,10 +2453,10 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5015,10 +5055,10 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6093,14 +6133,17 @@
       <c r="G32" s="3">
         <v>372716</v>
       </c>
-      <c r="H32" s="17">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="I32" s="41">
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -6126,14 +6169,17 @@
       <c r="G33" s="3">
         <v>388210</v>
       </c>
-      <c r="H33" s="17">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
+      <c r="H33" s="40">
+        <v>0</v>
+      </c>
+      <c r="I33" s="41">
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -6159,14 +6205,17 @@
       <c r="G34" s="3">
         <v>326837</v>
       </c>
-      <c r="H34" s="17">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
+      <c r="I34" s="41">
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -6192,14 +6241,17 @@
       <c r="G35" s="3">
         <v>433545</v>
       </c>
-      <c r="H35" s="17">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
+      <c r="H35" s="40">
+        <v>0</v>
+      </c>
+      <c r="I35" s="41">
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -7242,11 +7294,11 @@
       </c>
       <c r="H67" s="18">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J67" s="5">
         <f t="shared" si="10"/>
@@ -7272,7 +7324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E53" sqref="C4:E53"/>
     </sheetView>
   </sheetViews>
@@ -8177,4 +8229,3720 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE21789-34DF-4E45-8E9B-73B3AA5E7DCD}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>1416012</v>
+      </c>
+      <c r="D2">
+        <v>608809</v>
+      </c>
+      <c r="E2">
+        <v>26838</v>
+      </c>
+      <c r="F2">
+        <v>2051659</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>192126</v>
+      </c>
+      <c r="D3">
+        <v>159856</v>
+      </c>
+      <c r="E3">
+        <v>1183</v>
+      </c>
+      <c r="F3">
+        <v>353165</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1638516</v>
+      </c>
+      <c r="D4">
+        <v>1629318</v>
+      </c>
+      <c r="E4">
+        <v>415</v>
+      </c>
+      <c r="F4">
+        <v>3268249</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>828266</v>
+      </c>
+      <c r="D5">
+        <v>330485</v>
+      </c>
+      <c r="E5">
+        <v>20645</v>
+      </c>
+      <c r="F5">
+        <v>1179396</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>5640667</v>
+      </c>
+      <c r="D6">
+        <v>11084234</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>16724901</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1378248</v>
+      </c>
+      <c r="D7">
+        <v>1679052</v>
+      </c>
+      <c r="E7">
+        <v>107650</v>
+      </c>
+      <c r="F7">
+        <v>3164950</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>676650</v>
+      </c>
+      <c r="D8">
+        <v>1022792</v>
+      </c>
+      <c r="E8">
+        <v>73485</v>
+      </c>
+      <c r="F8">
+        <v>1772927</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>196392</v>
+      </c>
+      <c r="D9">
+        <v>281382</v>
+      </c>
+      <c r="E9">
+        <v>10496</v>
+      </c>
+      <c r="F9">
+        <v>488270</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>5469164</v>
+      </c>
+      <c r="D10">
+        <v>4942287</v>
+      </c>
+      <c r="E10">
+        <v>53340</v>
+      </c>
+      <c r="F10">
+        <v>10464791</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>2490396</v>
+      </c>
+      <c r="D11">
+        <v>2393089</v>
+      </c>
+      <c r="E11">
+        <v>126</v>
+      </c>
+      <c r="F11">
+        <v>4883611</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>155215</v>
+      </c>
+      <c r="D12">
+        <v>354762</v>
+      </c>
+      <c r="E12">
+        <v>69807</v>
+      </c>
+      <c r="F12">
+        <v>579784</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>561405</v>
+      </c>
+      <c r="D13">
+        <v>255531</v>
+      </c>
+      <c r="E13">
+        <v>32973</v>
+      </c>
+      <c r="F13">
+        <v>849909</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2416929</v>
+      </c>
+      <c r="D14">
+        <v>3355487</v>
+      </c>
+      <c r="E14">
+        <v>104403</v>
+      </c>
+      <c r="F14">
+        <v>5876819</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1738745</v>
+      </c>
+      <c r="D15">
+        <v>1194901</v>
+      </c>
+      <c r="E15">
+        <v>62798</v>
+      </c>
+      <c r="F15">
+        <v>2996444</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>859418</v>
+      </c>
+      <c r="D16">
+        <v>762271</v>
+      </c>
+      <c r="E16">
+        <v>78579</v>
+      </c>
+      <c r="F16">
+        <v>1700268</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>775898</v>
+      </c>
+      <c r="D17">
+        <v>557258</v>
+      </c>
+      <c r="E17">
+        <v>25797</v>
+      </c>
+      <c r="F17">
+        <v>1358953</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>1363964</v>
+      </c>
+      <c r="D18">
+        <v>735419</v>
+      </c>
+      <c r="E18">
+        <v>16512</v>
+      </c>
+      <c r="F18">
+        <v>2115895</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>1169788</v>
+      </c>
+      <c r="D19">
+        <v>727402</v>
+      </c>
+      <c r="E19">
+        <v>49945</v>
+      </c>
+      <c r="F19">
+        <v>1947135</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>340236</v>
+      </c>
+      <c r="D20">
+        <v>468978</v>
+      </c>
+      <c r="E20">
+        <v>19091</v>
+      </c>
+      <c r="F20">
+        <v>828305</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>1028150</v>
+      </c>
+      <c r="D21">
+        <v>1912740</v>
+      </c>
+      <c r="E21">
+        <v>13280</v>
+      </c>
+      <c r="F21">
+        <v>2954170</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>699001</v>
+      </c>
+      <c r="D22">
+        <v>2482596</v>
+      </c>
+      <c r="E22">
+        <v>476408</v>
+      </c>
+      <c r="F22">
+        <v>3658005</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2617881</v>
+      </c>
+      <c r="D23">
+        <v>2688527</v>
+      </c>
+      <c r="E23">
+        <v>116732</v>
+      </c>
+      <c r="F23">
+        <v>5423140</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>1474820</v>
+      </c>
+      <c r="D24">
+        <v>1554373</v>
+      </c>
+      <c r="E24">
+        <v>164616</v>
+      </c>
+      <c r="F24">
+        <v>3193809</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>806832</v>
+      </c>
+      <c r="D25">
+        <v>421014</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1227846</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>1723982</v>
+      </c>
+      <c r="D26">
+        <v>1172135</v>
+      </c>
+      <c r="E26">
+        <v>77304</v>
+      </c>
+      <c r="F26">
+        <v>2973421</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>339169</v>
+      </c>
+      <c r="D27">
+        <v>262340</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>601509</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>585234</v>
+      </c>
+      <c r="D28">
+        <v>326018</v>
+      </c>
+      <c r="E28">
+        <v>30046</v>
+      </c>
+      <c r="F28">
+        <v>941298</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>633827</v>
+      </c>
+      <c r="D29">
+        <v>665526</v>
+      </c>
+      <c r="E29">
+        <v>56254</v>
+      </c>
+      <c r="F29">
+        <v>1355607</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>354045</v>
+      </c>
+      <c r="D30">
+        <v>413895</v>
+      </c>
+      <c r="E30">
+        <v>19162</v>
+      </c>
+      <c r="F30">
+        <v>787102</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>1843047</v>
+      </c>
+      <c r="D31">
+        <v>2539128</v>
+      </c>
+      <c r="E31">
+        <v>50748</v>
+      </c>
+      <c r="F31">
+        <v>4432923</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>407786</v>
+      </c>
+      <c r="D32">
+        <v>495781</v>
+      </c>
+      <c r="E32">
+        <v>117</v>
+      </c>
+      <c r="F32">
+        <v>903684</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>2691583</v>
+      </c>
+      <c r="D33">
+        <v>4716619</v>
+      </c>
+      <c r="E33">
+        <v>1196227</v>
+      </c>
+      <c r="F33">
+        <v>8604429</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2631336</v>
+      </c>
+      <c r="D34">
+        <v>2660535</v>
+      </c>
+      <c r="E34">
+        <v>33374</v>
+      </c>
+      <c r="F34">
+        <v>5325245</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <v>245229</v>
+      </c>
+      <c r="D35">
+        <v>97970</v>
+      </c>
+      <c r="E35">
+        <v>12399</v>
+      </c>
+      <c r="F35">
+        <v>355598</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>3252887</v>
+      </c>
+      <c r="D36">
+        <v>2451500</v>
+      </c>
+      <c r="E36">
+        <v>57153</v>
+      </c>
+      <c r="F36">
+        <v>5761540</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37">
+        <v>1044175</v>
+      </c>
+      <c r="D37">
+        <v>475731</v>
+      </c>
+      <c r="E37">
+        <v>31477</v>
+      </c>
+      <c r="F37">
+        <v>1551383</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>966786</v>
+      </c>
+      <c r="D38">
+        <v>1285339</v>
+      </c>
+      <c r="E38">
+        <v>56064</v>
+      </c>
+      <c r="F38">
+        <v>2308189</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>3432595</v>
+      </c>
+      <c r="D39">
+        <v>3346712</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>6779307</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <v>109894</v>
+      </c>
+      <c r="D40">
+        <v>312636</v>
+      </c>
+      <c r="E40">
+        <v>65887</v>
+      </c>
+      <c r="F40">
+        <v>488417</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41">
+        <v>1412684</v>
+      </c>
+      <c r="D41">
+        <v>1076799</v>
+      </c>
+      <c r="E41">
+        <v>15959</v>
+      </c>
+      <c r="F41">
+        <v>2505442</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>321984</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>75748</v>
+      </c>
+      <c r="F42">
+        <v>397732</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>1685255</v>
+      </c>
+      <c r="D43">
+        <v>1105537</v>
+      </c>
+      <c r="E43">
+        <v>50952</v>
+      </c>
+      <c r="F43">
+        <v>2841744</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5926712</v>
+      </c>
+      <c r="D44">
+        <v>4896673</v>
+      </c>
+      <c r="E44">
+        <v>270241</v>
+      </c>
+      <c r="F44">
+        <v>11093626</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>873347</v>
+      </c>
+      <c r="D45">
+        <v>505946</v>
+      </c>
+      <c r="E45">
+        <v>52939</v>
+      </c>
+      <c r="F45">
+        <v>1432232</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <v>95830</v>
+      </c>
+      <c r="D46">
+        <v>238827</v>
+      </c>
+      <c r="E46">
+        <v>36311</v>
+      </c>
+      <c r="F46">
+        <v>370968</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>2047635</v>
+      </c>
+      <c r="D47">
+        <v>2253974</v>
+      </c>
+      <c r="E47">
+        <v>33827</v>
+      </c>
+      <c r="F47">
+        <v>4335436</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48">
+        <v>1545436</v>
+      </c>
+      <c r="D48">
+        <v>2340356</v>
+      </c>
+      <c r="E48">
+        <v>58441</v>
+      </c>
+      <c r="F48">
+        <v>3944233</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>514268</v>
+      </c>
+      <c r="D49">
+        <v>246903</v>
+      </c>
+      <c r="E49">
+        <v>214</v>
+      </c>
+      <c r="F49">
+        <v>761385</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>1661399</v>
+      </c>
+      <c r="D50">
+        <v>1566671</v>
+      </c>
+      <c r="E50">
+        <v>9981</v>
+      </c>
+      <c r="F50">
+        <v>3238051</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <v>185732</v>
+      </c>
+      <c r="D51">
+        <v>66576</v>
+      </c>
+      <c r="E51">
+        <v>26195</v>
+      </c>
+      <c r="F51">
+        <v>278503</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABE9293-96BF-8F4D-8F05-24D58B7EF64A}">
+  <dimension ref="A1:J64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2">
+        <v>253094</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>11066</v>
+      </c>
+      <c r="G2">
+        <v>264160</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3">
+        <v>274160</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>8101</v>
+      </c>
+      <c r="G3">
+        <v>282261</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>225742</v>
+      </c>
+      <c r="F4">
+        <v>6589</v>
+      </c>
+      <c r="G4">
+        <v>232331</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>237596</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>237596</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>362950</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>362950</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>344139</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>344139</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>210944</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>210944</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>205346</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>205346</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>256206</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>256206</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>206036</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>206036</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>334858</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>334858</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18">
+        <v>305337</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>6662</v>
+      </c>
+      <c r="G18">
+        <v>311999</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>186251</v>
+      </c>
+      <c r="F23">
+        <v>68327</v>
+      </c>
+      <c r="G23">
+        <v>254578</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>275376</v>
+      </c>
+      <c r="F31">
+        <v>97340</v>
+      </c>
+      <c r="G31">
+        <v>372716</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>286896</v>
+      </c>
+      <c r="F32">
+        <v>101314</v>
+      </c>
+      <c r="G32">
+        <v>388210</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>267362</v>
+      </c>
+      <c r="F33">
+        <v>59475</v>
+      </c>
+      <c r="G33">
+        <v>326837</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>310940</v>
+      </c>
+      <c r="F34">
+        <v>122605</v>
+      </c>
+      <c r="G34">
+        <v>433545</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37">
+        <v>255971</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>255971</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>229125</v>
+      </c>
+      <c r="F45">
+        <v>48784</v>
+      </c>
+      <c r="G45">
+        <v>277909</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>218471</v>
+      </c>
+      <c r="F46">
+        <v>47589</v>
+      </c>
+      <c r="G46">
+        <v>266060</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>341457</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>341457</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>158550</v>
+      </c>
+      <c r="F53">
+        <v>65310</v>
+      </c>
+      <c r="G53">
+        <v>223860</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55">
+        <v>321984</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>75748</v>
+      </c>
+      <c r="G55">
+        <v>397732</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>252155</v>
+      </c>
+      <c r="F56">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>252169</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60">
+        <v>271851</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>17423</v>
+      </c>
+      <c r="G60">
+        <v>289274</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>288977</v>
+      </c>
+      <c r="F61">
+        <v>51430</v>
+      </c>
+      <c r="G61">
+        <v>340407</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E70878-F694-CC4F-9F09-EC096F99B275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CD798-7C4C-884C-BA18-7848361B008F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="6" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="7" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="8" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="7" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$J$2:$J$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="158">
   <si>
     <t>State</t>
   </si>
@@ -405,15 +401,6 @@
     <t>Uncontested Votes</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
-  </si>
-  <si>
     <t>TOT2</t>
   </si>
   <si>
@@ -421,24 +408,6 @@
   </si>
   <si>
     <t xml:space="preserve">           Actual Seats</t>
-  </si>
-  <si>
-    <t>REP3</t>
-  </si>
-  <si>
-    <t>DEM3</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>AVG Votes</t>
-  </si>
-  <si>
-    <t>Uncontested</t>
-  </si>
-  <si>
-    <t>TOT3</t>
   </si>
   <si>
     <t>D includes "Democratict-Farmer-Laborer"</t>
@@ -625,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,18 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -700,26 +657,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -732,7 +669,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,36 +695,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -800,14 +716,7 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -818,1373 +727,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alec Ramsay" refreshedDate="44555.565720138889" createdVersion="4" refreshedVersion="7" minRefreshableVersion="3" recordCount="69" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J95" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems containsBlank="1" count="52">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-        <m/>
-        <s v="Total"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems containsBlank="1" count="51">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1919993"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4961781"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="787777"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="7669551"/>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="15"/>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="69">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="5th"/>
-    <n v="253094"/>
-    <n v="0"/>
-    <n v="11066"/>
-    <n v="264160"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="6th"/>
-    <n v="274160"/>
-    <n v="0"/>
-    <n v="8101"/>
-    <n v="282261"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="225742"/>
-    <n v="6589"/>
-    <n v="232331"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="n/a"/>
-    <n v="237596"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="237596"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="12th"/>
-    <n v="0"/>
-    <n v="362950"/>
-    <n v="0"/>
-    <n v="362950"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="18th"/>
-    <n v="0"/>
-    <n v="344139"/>
-    <n v="0"/>
-    <n v="344139"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="29th"/>
-    <n v="0"/>
-    <n v="210944"/>
-    <n v="0"/>
-    <n v="210944"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="34th"/>
-    <n v="0"/>
-    <n v="205346"/>
-    <n v="0"/>
-    <n v="205346"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="38th"/>
-    <n v="0"/>
-    <n v="256206"/>
-    <n v="0"/>
-    <n v="256206"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="44th"/>
-    <n v="0"/>
-    <n v="206036"/>
-    <n v="0"/>
-    <n v="206036"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="53rd"/>
-    <n v="0"/>
-    <n v="334858"/>
-    <n v="0"/>
-    <n v="334858"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="2nd"/>
-    <n v="305337"/>
-    <n v="0"/>
-    <n v="6662"/>
-    <n v="311999"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="25th"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="186251"/>
-    <n v="68327"/>
-    <n v="254578"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="275376"/>
-    <n v="97340"/>
-    <n v="372716"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="286896"/>
-    <n v="101314"/>
-    <n v="388210"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="267362"/>
-    <n v="59475"/>
-    <n v="326837"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="310940"/>
-    <n v="122605"/>
-    <n v="433545"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="4th"/>
-    <n v="255971"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="255971"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="229125"/>
-    <n v="48784"/>
-    <n v="277909"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="16th"/>
-    <n v="0"/>
-    <n v="218471"/>
-    <n v="47589"/>
-    <n v="266060"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="12th"/>
-    <n v="0"/>
-    <n v="341457"/>
-    <n v="0"/>
-    <n v="341457"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="158550"/>
-    <n v="65310"/>
-    <n v="223860"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="At-large"/>
-    <n v="321984"/>
-    <n v="0"/>
-    <n v="75748"/>
-    <n v="397732"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="252155"/>
-    <n v="14"/>
-    <n v="252169"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="9th"/>
-    <n v="271851"/>
-    <n v="0"/>
-    <n v="17423"/>
-    <n v="289274"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="10th"/>
-    <n v="0"/>
-    <n v="288977"/>
-    <n v="51430"/>
-    <n v="340407"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="50"/>
-    <m/>
-    <n v="1919993"/>
-    <n v="4961781"/>
-    <n v="787777"/>
-    <n v="7669551"/>
-    <n v="12"/>
-    <n v="15"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="52">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="51">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-        <item x="50"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Uncontested Votes" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2450,13 +992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2466,42 +1008,31 @@
     <col min="3" max="3" width="10.83203125" style="13"/>
     <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" style="17" customWidth="1"/>
-    <col min="12" max="14" width="5.83203125" customWidth="1"/>
-    <col min="15" max="15" width="46.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="17" customWidth="1"/>
+    <col min="8" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="46.5" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="15"/>
-      <c r="L1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2520,35 +1051,23 @@
       <c r="F2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>127</v>
+      <c r="G2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2568,34 +1087,21 @@
       <c r="F3" s="3">
         <v>2051659</v>
       </c>
-      <c r="G3" s="30">
-        <v>778752</v>
-      </c>
-      <c r="H3" s="31">
-        <v>2</v>
-      </c>
-      <c r="I3" s="31">
-        <v>1</v>
-      </c>
-      <c r="J3" s="32">
-        <f t="shared" ref="J3:J34" si="1">(F3-G3)/(N3-SUM(H3:I3))</f>
-        <v>318226.75</v>
-      </c>
-      <c r="K3" s="33">
-        <f t="shared" ref="K3:K52" si="2">N3-L3-M3</f>
+      <c r="G3" s="23">
+        <f t="shared" ref="G3:G52" si="1">J3-H3-I3</f>
         <v>6</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2609,40 +1115,27 @@
         <v>159856</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E52" si="3">F4-D4-C4</f>
+        <f t="shared" ref="E4:E52" si="2">F4-D4-C4</f>
         <v>1183</v>
       </c>
       <c r="F4" s="3">
         <v>353165</v>
       </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="31">
-        <v>0</v>
-      </c>
-      <c r="J4" s="32">
-        <f t="shared" si="1"/>
-        <v>353165</v>
-      </c>
-      <c r="K4" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G4" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2656,40 +1149,27 @@
         <v>1629318</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>415</v>
       </c>
       <c r="F5" s="3">
         <v>3268249</v>
       </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
-        <f t="shared" si="1"/>
-        <v>363138.77777777775</v>
-      </c>
-      <c r="K5" s="33">
-        <f t="shared" si="2"/>
+      <c r="G5" s="23">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="38">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2703,40 +1183,27 @@
         <v>330485</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20645</v>
       </c>
       <c r="F6" s="3">
         <v>1179396</v>
       </c>
-      <c r="G6" s="30">
-        <v>237596</v>
-      </c>
-      <c r="H6" s="31">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <f t="shared" si="1"/>
-        <v>313933.33333333331</v>
-      </c>
-      <c r="K6" s="33">
-        <f t="shared" si="2"/>
+      <c r="G6" s="23">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="38">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2750,40 +1217,27 @@
         <v>11084234</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>16724901</v>
       </c>
-      <c r="G7" s="30">
-        <v>1920479</v>
-      </c>
-      <c r="H7" s="31">
-        <v>0</v>
-      </c>
-      <c r="I7" s="31">
-        <v>7</v>
-      </c>
-      <c r="J7" s="32">
-        <f t="shared" si="1"/>
-        <v>321835.26086956525</v>
-      </c>
-      <c r="K7" s="33">
-        <f t="shared" si="2"/>
+      <c r="G7" s="23">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L7">
+      <c r="H7">
         <v>42</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="38">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2797,40 +1251,27 @@
         <v>1679052</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>107650</v>
       </c>
       <c r="F8" s="3">
         <v>3164950</v>
       </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="32">
-        <f t="shared" si="1"/>
-        <v>452135.71428571426</v>
-      </c>
-      <c r="K8" s="33">
-        <f t="shared" si="2"/>
+      <c r="G8" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="38">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2844,40 +1285,27 @@
         <v>1022792</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>73485</v>
       </c>
       <c r="F9" s="3">
         <v>1772927</v>
       </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="31">
-        <v>0</v>
-      </c>
-      <c r="I9" s="31">
-        <v>0</v>
-      </c>
-      <c r="J9" s="32">
-        <f t="shared" si="1"/>
-        <v>354585.4</v>
-      </c>
-      <c r="K9" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="G9" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="38">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2891,40 +1319,27 @@
         <v>281382</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10496</v>
       </c>
       <c r="F10" s="3">
         <v>488270</v>
       </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="32">
-        <f t="shared" si="1"/>
-        <v>488270</v>
-      </c>
-      <c r="K10" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2938,46 +1353,33 @@
         <v>4942287</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53340</v>
       </c>
       <c r="F11" s="3">
         <v>10464791</v>
       </c>
-      <c r="G11" s="30">
-        <v>311999</v>
-      </c>
-      <c r="H11" s="31">
-        <v>2</v>
-      </c>
-      <c r="I11" s="31">
-        <v>0</v>
-      </c>
-      <c r="J11" s="32">
-        <f t="shared" si="1"/>
-        <v>406111.68</v>
-      </c>
-      <c r="K11" s="33">
-        <f t="shared" si="2"/>
+      <c r="G11" s="23">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L11">
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="38">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
         <v>27</v>
       </c>
-      <c r="O11" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="K11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2991,40 +1393,27 @@
         <v>2393089</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="F12" s="3">
         <v>4883611</v>
       </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31">
-        <v>0</v>
-      </c>
-      <c r="I12" s="31">
-        <v>0</v>
-      </c>
-      <c r="J12" s="32">
-        <f t="shared" si="1"/>
-        <v>348829.35714285716</v>
-      </c>
-      <c r="K12" s="33">
-        <f t="shared" si="2"/>
+      <c r="G12" s="23">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L12">
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="38">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3038,40 +1427,27 @@
         <v>354762</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>69807</v>
       </c>
       <c r="F13" s="3">
         <v>579784</v>
       </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-      <c r="J13" s="32">
-        <f t="shared" si="1"/>
-        <v>289892</v>
-      </c>
-      <c r="K13" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="G13" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="38">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3085,40 +1461,27 @@
         <v>255531</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32973</v>
       </c>
       <c r="F14" s="3">
         <v>849909</v>
       </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="31">
-        <v>0</v>
-      </c>
-      <c r="I14" s="31">
-        <v>0</v>
-      </c>
-      <c r="J14" s="32">
-        <f t="shared" si="1"/>
-        <v>424954.5</v>
-      </c>
-      <c r="K14" s="33">
-        <f t="shared" si="2"/>
+      <c r="G14" s="23">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="38">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3132,40 +1495,27 @@
         <v>3355487</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>104403</v>
       </c>
       <c r="F15" s="3">
         <v>5876819</v>
       </c>
-      <c r="G15" s="30">
-        <v>254578</v>
-      </c>
-      <c r="H15" s="31">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31">
-        <v>1</v>
-      </c>
-      <c r="J15" s="32">
-        <f t="shared" si="1"/>
-        <v>330720.0588235294</v>
-      </c>
-      <c r="K15" s="33">
-        <f t="shared" si="2"/>
+      <c r="G15" s="23">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L15">
+      <c r="H15">
         <v>13</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="38">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3179,40 +1529,27 @@
         <v>1194901</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62798</v>
       </c>
       <c r="F16" s="3">
         <v>2996444</v>
       </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="31">
-        <v>0</v>
-      </c>
-      <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
-        <f t="shared" si="1"/>
-        <v>332938.22222222225</v>
-      </c>
-      <c r="K16" s="33">
-        <f t="shared" si="2"/>
+      <c r="G16" s="23">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="38">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3226,40 +1563,27 @@
         <v>762271</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>78579</v>
       </c>
       <c r="F17" s="3">
         <v>1700268</v>
       </c>
-      <c r="G17" s="30">
-        <v>0</v>
-      </c>
-      <c r="H17" s="31">
-        <v>0</v>
-      </c>
-      <c r="I17" s="31">
-        <v>0</v>
-      </c>
-      <c r="J17" s="32">
-        <f t="shared" si="1"/>
-        <v>425067</v>
-      </c>
-      <c r="K17" s="33">
-        <f t="shared" si="2"/>
+      <c r="G17" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="38">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -3273,40 +1597,27 @@
         <v>557258</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25797</v>
       </c>
       <c r="F18" s="3">
         <v>1358953</v>
       </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="31">
-        <v>0</v>
-      </c>
-      <c r="I18" s="31">
-        <v>0</v>
-      </c>
-      <c r="J18" s="32">
-        <f t="shared" si="1"/>
-        <v>339738.25</v>
-      </c>
-      <c r="K18" s="33">
-        <f t="shared" si="2"/>
+      <c r="G18" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="38">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3320,40 +1631,27 @@
         <v>735419</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16512</v>
       </c>
       <c r="F19" s="3">
         <v>2115895</v>
       </c>
-      <c r="G19" s="30">
-        <v>0</v>
-      </c>
-      <c r="H19" s="31">
-        <v>0</v>
-      </c>
-      <c r="I19" s="31">
-        <v>0</v>
-      </c>
-      <c r="J19" s="32">
-        <f t="shared" si="1"/>
-        <v>352649.16666666669</v>
-      </c>
-      <c r="K19" s="33">
-        <f t="shared" si="2"/>
+      <c r="G19" s="23">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="38">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -3367,40 +1665,27 @@
         <v>727402</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49945</v>
       </c>
       <c r="F20" s="3">
         <v>1947135</v>
       </c>
-      <c r="G20" s="30">
-        <v>0</v>
-      </c>
-      <c r="H20" s="31">
-        <v>0</v>
-      </c>
-      <c r="I20" s="31">
-        <v>0</v>
-      </c>
-      <c r="J20" s="32">
-        <f t="shared" si="1"/>
-        <v>324522.5</v>
-      </c>
-      <c r="K20" s="33">
-        <f t="shared" si="2"/>
+      <c r="G20" s="23">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="38">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3414,40 +1699,27 @@
         <v>468978</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19091</v>
       </c>
       <c r="F21" s="3">
         <v>828305</v>
       </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31">
-        <v>0</v>
-      </c>
-      <c r="I21" s="31">
-        <v>0</v>
-      </c>
-      <c r="J21" s="32">
-        <f t="shared" si="1"/>
-        <v>414152.5</v>
-      </c>
-      <c r="K21" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="G21" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="38">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3461,40 +1733,27 @@
         <v>1912740</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13280</v>
       </c>
       <c r="F22" s="3">
         <v>2954170</v>
       </c>
-      <c r="G22" s="30">
-        <v>0</v>
-      </c>
-      <c r="H22" s="31">
-        <v>0</v>
-      </c>
-      <c r="I22" s="31">
-        <v>0</v>
-      </c>
-      <c r="J22" s="32">
-        <f t="shared" si="1"/>
-        <v>369271.25</v>
-      </c>
-      <c r="K22" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L22">
+      <c r="G22" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>7</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="38">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3508,40 +1767,27 @@
         <v>2482596</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>476408</v>
       </c>
       <c r="F23" s="3">
         <v>3658005</v>
       </c>
-      <c r="G23" s="30">
-        <v>1521308</v>
-      </c>
-      <c r="H23" s="31">
-        <v>4</v>
-      </c>
-      <c r="I23" s="31">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <f t="shared" si="1"/>
-        <v>427339.4</v>
-      </c>
-      <c r="K23" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="G23" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="38">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -3555,40 +1801,27 @@
         <v>2688527</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>116732</v>
       </c>
       <c r="F24" s="3">
         <v>5423140</v>
       </c>
-      <c r="G24" s="30">
-        <v>0</v>
-      </c>
-      <c r="H24" s="31">
-        <v>0</v>
-      </c>
-      <c r="I24" s="31">
-        <v>0</v>
-      </c>
-      <c r="J24" s="32">
-        <f t="shared" si="1"/>
-        <v>387367.14285714284</v>
-      </c>
-      <c r="K24" s="33">
-        <f t="shared" si="2"/>
+      <c r="G24" s="23">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L24">
+      <c r="H24">
         <v>7</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="38">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3603,43 +1836,30 @@
         <v>1554373</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>164616</v>
       </c>
       <c r="F25" s="3">
         <v>3193809</v>
       </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31">
-        <v>0</v>
-      </c>
-      <c r="I25" s="31">
-        <v>0</v>
-      </c>
-      <c r="J25" s="32">
-        <f t="shared" si="1"/>
-        <v>399226.125</v>
-      </c>
-      <c r="K25" s="33">
-        <f t="shared" si="2"/>
+      <c r="G25" s="23">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="38">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="27">
         <v>8</v>
       </c>
-      <c r="O25" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K25" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3653,40 +1873,27 @@
         <v>421014</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>1227846</v>
       </c>
-      <c r="G26" s="30">
-        <v>255971</v>
-      </c>
-      <c r="H26" s="31">
-        <v>1</v>
-      </c>
-      <c r="I26" s="31">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <f t="shared" si="1"/>
-        <v>323958.33333333331</v>
-      </c>
-      <c r="K26" s="33">
-        <f t="shared" si="2"/>
+      <c r="G26" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="38">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3700,40 +1907,27 @@
         <v>1172135</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>77304</v>
       </c>
       <c r="F27" s="3">
         <v>2973421</v>
       </c>
-      <c r="G27" s="30">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31">
-        <v>0</v>
-      </c>
-      <c r="I27" s="31">
-        <v>0</v>
-      </c>
-      <c r="J27" s="32">
-        <f t="shared" si="1"/>
-        <v>371677.625</v>
-      </c>
-      <c r="K27" s="33">
-        <f t="shared" si="2"/>
+      <c r="G27" s="23">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L27">
+      <c r="H27">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="38">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3747,40 +1941,27 @@
         <v>262340</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="3">
         <v>601509</v>
       </c>
-      <c r="G28" s="30">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31">
-        <v>0</v>
-      </c>
-      <c r="I28" s="31">
-        <v>0</v>
-      </c>
-      <c r="J28" s="32">
-        <f t="shared" si="1"/>
-        <v>601509</v>
-      </c>
-      <c r="K28" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G28" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3794,40 +1975,27 @@
         <v>326018</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30046</v>
       </c>
       <c r="F29" s="3">
         <v>941298</v>
       </c>
-      <c r="G29" s="30">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31">
-        <v>0</v>
-      </c>
-      <c r="I29" s="31">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <f t="shared" si="1"/>
-        <v>313766</v>
-      </c>
-      <c r="K29" s="33">
-        <f t="shared" si="2"/>
+      <c r="G29" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" s="38">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3841,40 +2009,27 @@
         <v>665526</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56254</v>
       </c>
       <c r="F30" s="3">
         <v>1355607</v>
       </c>
-      <c r="G30" s="30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="31">
-        <v>0</v>
-      </c>
-      <c r="I30" s="31">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <f t="shared" si="1"/>
-        <v>338901.75</v>
-      </c>
-      <c r="K30" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L30">
+      <c r="G30" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>3</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" s="38">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3888,40 +2043,27 @@
         <v>413895</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19162</v>
       </c>
       <c r="F31" s="3">
         <v>787102</v>
       </c>
-      <c r="G31" s="30">
-        <v>0</v>
-      </c>
-      <c r="H31" s="31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="32">
-        <f t="shared" si="1"/>
-        <v>393551</v>
-      </c>
-      <c r="K31" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="G31" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="38">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -3935,40 +2077,27 @@
         <v>2539128</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50748</v>
       </c>
       <c r="F32" s="3">
         <v>4432923</v>
       </c>
-      <c r="G32" s="30">
-        <v>0</v>
-      </c>
-      <c r="H32" s="31">
-        <v>0</v>
-      </c>
-      <c r="I32" s="31">
-        <v>0</v>
-      </c>
-      <c r="J32" s="32">
-        <f t="shared" si="1"/>
-        <v>369410.25</v>
-      </c>
-      <c r="K32" s="33">
-        <f t="shared" si="2"/>
+      <c r="G32" s="23">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L32">
+      <c r="H32">
         <v>10</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" s="38">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3982,40 +2111,27 @@
         <v>495781</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="F33" s="3">
         <v>903684</v>
       </c>
-      <c r="G33" s="30">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31">
-        <v>0</v>
-      </c>
-      <c r="I33" s="31">
-        <v>0</v>
-      </c>
-      <c r="J33" s="32">
-        <f t="shared" si="1"/>
-        <v>301228</v>
-      </c>
-      <c r="K33" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L33">
+      <c r="G33" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" s="38">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4029,40 +2145,27 @@
         <v>4716619</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1196227</v>
       </c>
       <c r="F34" s="3">
         <v>8604429</v>
       </c>
-      <c r="G34" s="30">
-        <v>543969</v>
-      </c>
-      <c r="H34" s="31">
-        <v>0</v>
-      </c>
-      <c r="I34" s="31">
-        <v>2</v>
-      </c>
-      <c r="J34" s="32">
-        <f t="shared" si="1"/>
-        <v>322418.40000000002</v>
-      </c>
-      <c r="K34" s="33">
-        <f t="shared" si="2"/>
+      <c r="G34" s="23">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L34">
+      <c r="H34">
         <v>19</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" s="38">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="27">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4076,40 +2179,27 @@
         <v>2660535</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33374</v>
       </c>
       <c r="F35" s="3">
         <v>5325245</v>
       </c>
-      <c r="G35" s="30">
-        <v>341457</v>
-      </c>
-      <c r="H35" s="31">
-        <v>0</v>
-      </c>
-      <c r="I35" s="31">
-        <v>1</v>
-      </c>
-      <c r="J35" s="32">
-        <f t="shared" ref="J35:J52" si="4">(F35-G35)/(N35-SUM(H35:I35))</f>
-        <v>415315.66666666669</v>
-      </c>
-      <c r="K35" s="33">
-        <f t="shared" si="2"/>
+      <c r="G35" s="23">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L35">
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" s="38">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="27">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -4123,43 +2213,30 @@
         <v>97970</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12399</v>
       </c>
       <c r="F36" s="3">
         <v>355598</v>
       </c>
-      <c r="G36" s="30">
-        <v>0</v>
-      </c>
-      <c r="H36" s="31">
-        <v>0</v>
-      </c>
-      <c r="I36" s="31">
-        <v>0</v>
-      </c>
-      <c r="J36" s="32">
-        <f t="shared" si="4"/>
-        <v>355598</v>
-      </c>
-      <c r="K36" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" s="38">
-        <v>1</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G36" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="27">
+        <v>1</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -4173,40 +2250,27 @@
         <v>2451500</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57153</v>
       </c>
       <c r="F37" s="3">
         <v>5761540</v>
       </c>
-      <c r="G37" s="30">
-        <v>0</v>
-      </c>
-      <c r="H37" s="31">
-        <v>0</v>
-      </c>
-      <c r="I37" s="31">
-        <v>0</v>
-      </c>
-      <c r="J37" s="32">
-        <f t="shared" si="4"/>
-        <v>360096.25</v>
-      </c>
-      <c r="K37" s="33">
-        <f t="shared" si="2"/>
+      <c r="G37" s="23">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L37">
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" s="38">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4220,40 +2284,27 @@
         <v>475731</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31477</v>
       </c>
       <c r="F38" s="3">
         <v>1551383</v>
       </c>
-      <c r="G38" s="30">
-        <v>0</v>
-      </c>
-      <c r="H38" s="31">
-        <v>0</v>
-      </c>
-      <c r="I38" s="31">
-        <v>0</v>
-      </c>
-      <c r="J38" s="32">
-        <f t="shared" si="4"/>
-        <v>310276.59999999998</v>
-      </c>
-      <c r="K38" s="33">
-        <f t="shared" si="2"/>
+      <c r="G38" s="23">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" s="38">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -4267,40 +2318,27 @@
         <v>1285339</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56064</v>
       </c>
       <c r="F39" s="3">
         <v>2308189</v>
       </c>
-      <c r="G39" s="30">
-        <v>0</v>
-      </c>
-      <c r="H39" s="31">
-        <v>0</v>
-      </c>
-      <c r="I39" s="31">
-        <v>0</v>
-      </c>
-      <c r="J39" s="32">
-        <f t="shared" si="4"/>
-        <v>461637.8</v>
-      </c>
-      <c r="K39" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="G39" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" s="38">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4314,40 +2352,27 @@
         <v>3346712</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F40" s="3">
         <v>6779307</v>
       </c>
-      <c r="G40" s="30">
-        <v>0</v>
-      </c>
-      <c r="H40" s="31">
-        <v>0</v>
-      </c>
-      <c r="I40" s="31">
-        <v>0</v>
-      </c>
-      <c r="J40" s="32">
-        <f t="shared" si="4"/>
-        <v>376628.16666666669</v>
-      </c>
-      <c r="K40" s="33">
-        <f t="shared" si="2"/>
+      <c r="G40" s="23">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L40">
+      <c r="H40">
         <v>9</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" s="38">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="27">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4361,40 +2386,27 @@
         <v>312636</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65887</v>
       </c>
       <c r="F41" s="3">
         <v>488417</v>
       </c>
-      <c r="G41" s="30">
-        <v>223860</v>
-      </c>
-      <c r="H41" s="31">
-        <v>0</v>
-      </c>
-      <c r="I41" s="31">
-        <v>1</v>
-      </c>
-      <c r="J41" s="32">
-        <f t="shared" si="4"/>
-        <v>264557</v>
-      </c>
-      <c r="K41" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="G41" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" s="38">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -4408,40 +2420,27 @@
         <v>1076799</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15959</v>
       </c>
       <c r="F42" s="3">
         <v>2505442</v>
       </c>
-      <c r="G42" s="30">
-        <v>0</v>
-      </c>
-      <c r="H42" s="31">
-        <v>0</v>
-      </c>
-      <c r="I42" s="31">
-        <v>0</v>
-      </c>
-      <c r="J42" s="32">
-        <f t="shared" si="4"/>
-        <v>357920.28571428574</v>
-      </c>
-      <c r="K42" s="33">
-        <f t="shared" si="2"/>
+      <c r="G42" s="23">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" s="38">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -4455,43 +2454,30 @@
         <v>0</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>75748</v>
       </c>
       <c r="F43" s="3">
         <v>397732</v>
       </c>
-      <c r="G43" s="30">
-        <v>397732</v>
-      </c>
-      <c r="H43" s="31">
-        <v>1</v>
-      </c>
-      <c r="I43" s="31">
-        <v>0</v>
-      </c>
-      <c r="J43" s="39" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" s="38">
-        <v>1</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G43" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="27">
+        <v>1</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -4505,40 +2491,27 @@
         <v>1105537</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50952</v>
       </c>
       <c r="F44" s="3">
         <v>2841744</v>
       </c>
-      <c r="G44" s="30">
-        <v>252169</v>
-      </c>
-      <c r="H44" s="31">
-        <v>0</v>
-      </c>
-      <c r="I44" s="31">
-        <v>1</v>
-      </c>
-      <c r="J44" s="32">
-        <f t="shared" si="4"/>
-        <v>323696.875</v>
-      </c>
-      <c r="K44" s="33">
-        <f t="shared" si="2"/>
+      <c r="G44" s="23">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L44">
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" s="38">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4552,40 +2525,27 @@
         <v>4896673</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270241</v>
       </c>
       <c r="F45" s="3">
         <v>11093626</v>
       </c>
-      <c r="G45" s="30">
-        <v>0</v>
-      </c>
-      <c r="H45" s="31">
-        <v>0</v>
-      </c>
-      <c r="I45" s="31">
-        <v>0</v>
-      </c>
-      <c r="J45" s="32">
-        <f t="shared" si="4"/>
-        <v>308156.27777777775</v>
-      </c>
-      <c r="K45" s="33">
-        <f t="shared" si="2"/>
+      <c r="G45" s="23">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="L45">
+      <c r="H45">
         <v>13</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" s="38">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="27">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -4599,40 +2559,27 @@
         <v>505946</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52939</v>
       </c>
       <c r="F46" s="3">
         <v>1432232</v>
       </c>
-      <c r="G46" s="30">
-        <v>0</v>
-      </c>
-      <c r="H46" s="31">
-        <v>0</v>
-      </c>
-      <c r="I46" s="31">
-        <v>0</v>
-      </c>
-      <c r="J46" s="32">
-        <f t="shared" si="4"/>
-        <v>358058</v>
-      </c>
-      <c r="K46" s="33">
-        <f t="shared" si="2"/>
+      <c r="G46" s="23">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" s="38">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4646,40 +2593,27 @@
         <v>238827</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36311</v>
       </c>
       <c r="F47" s="3">
         <v>370968</v>
       </c>
-      <c r="G47" s="30">
-        <v>0</v>
-      </c>
-      <c r="H47" s="31">
-        <v>0</v>
-      </c>
-      <c r="I47" s="31">
-        <v>0</v>
-      </c>
-      <c r="J47" s="32">
-        <f t="shared" si="4"/>
-        <v>370968</v>
-      </c>
-      <c r="K47" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G47" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -4693,40 +2627,27 @@
         <v>2253974</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33827</v>
       </c>
       <c r="F48" s="3">
         <v>4335436</v>
       </c>
-      <c r="G48" s="30">
-        <v>289274</v>
-      </c>
-      <c r="H48" s="31">
-        <v>1</v>
-      </c>
-      <c r="I48" s="31">
-        <v>0</v>
-      </c>
-      <c r="J48" s="32">
-        <f t="shared" si="4"/>
-        <v>404616.2</v>
-      </c>
-      <c r="K48" s="33">
-        <f t="shared" si="2"/>
+      <c r="G48" s="23">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L48">
+      <c r="H48">
         <v>7</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" s="38">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="27">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4740,40 +2661,27 @@
         <v>2340356</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58441</v>
       </c>
       <c r="F49" s="3">
         <v>3944233</v>
       </c>
-      <c r="G49" s="30">
-        <v>340407</v>
-      </c>
-      <c r="H49" s="31">
-        <v>0</v>
-      </c>
-      <c r="I49" s="31">
-        <v>1</v>
-      </c>
-      <c r="J49" s="32">
-        <f t="shared" si="4"/>
-        <v>400425.11111111112</v>
-      </c>
-      <c r="K49" s="33">
-        <f t="shared" si="2"/>
+      <c r="G49" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L49">
+      <c r="H49">
         <v>7</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" s="38">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -4787,40 +2695,27 @@
         <v>246903</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="F50" s="3">
         <v>761385</v>
       </c>
-      <c r="G50" s="30">
-        <v>0</v>
-      </c>
-      <c r="H50" s="31">
-        <v>0</v>
-      </c>
-      <c r="I50" s="31">
-        <v>0</v>
-      </c>
-      <c r="J50" s="32">
-        <f t="shared" si="4"/>
-        <v>253795</v>
-      </c>
-      <c r="K50" s="33">
-        <f t="shared" si="2"/>
+      <c r="G50" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" s="38">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4834,40 +2729,27 @@
         <v>1566671</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9981</v>
       </c>
       <c r="F51" s="3">
         <v>3238051</v>
       </c>
-      <c r="G51" s="30">
-        <v>0</v>
-      </c>
-      <c r="H51" s="31">
-        <v>0</v>
-      </c>
-      <c r="I51" s="31">
-        <v>0</v>
-      </c>
-      <c r="J51" s="32">
-        <f t="shared" si="4"/>
-        <v>404756.375</v>
-      </c>
-      <c r="K51" s="33">
-        <f t="shared" si="2"/>
+      <c r="G51" s="23">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L51">
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" s="38">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -4881,43 +2763,30 @@
         <v>66576</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26195</v>
       </c>
       <c r="F52" s="3">
         <v>278503</v>
       </c>
-      <c r="G52" s="30">
-        <v>0</v>
-      </c>
-      <c r="H52" s="31">
-        <v>0</v>
-      </c>
-      <c r="I52" s="31">
-        <v>0</v>
-      </c>
-      <c r="J52" s="32">
-        <f t="shared" si="4"/>
-        <v>278503</v>
-      </c>
-      <c r="K52" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G52" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -4927,85 +2796,66 @@
         <v>72466576</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" ref="D54:F54" si="5">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="3">SUM(D3:D52)</f>
         <v>77122690</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3842139</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>153431405</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="18">
         <f>SUM(G3:G52)</f>
-        <v>7669551</v>
-      </c>
-      <c r="H54" s="7">
-        <f t="shared" ref="H54:I54" si="6">SUM(H3:H52)</f>
-        <v>12</v>
-      </c>
-      <c r="I54" s="7">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="18">
-        <f>SUM(K3:K52)</f>
         <v>213</v>
       </c>
-      <c r="L54" s="5">
-        <f t="shared" ref="L54:N54" si="7">SUM(L3:L52)</f>
+      <c r="H54" s="5">
+        <f t="shared" ref="H54:J54" si="4">SUM(H3:H52)</f>
         <v>222</v>
       </c>
-      <c r="M54" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="5">
-        <f t="shared" si="7"/>
+      <c r="I54" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="4"/>
         <v>435</v>
       </c>
-      <c r="O54" s="18"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
+      <c r="K54" s="18"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25">
         <v>72466576</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="26">
         <f>77122690</f>
         <v>77122690</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36">
+      <c r="E57" s="26"/>
+      <c r="F57" s="26">
         <v>153431405</v>
       </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="29">
+      <c r="G57" s="22">
         <v>213</v>
       </c>
-      <c r="L57" s="34">
+      <c r="H57" s="24">
         <v>222</v>
       </c>
-      <c r="M57" s="34">
-        <v>0</v>
-      </c>
-      <c r="N57" s="34">
+      <c r="I57" s="24">
+        <v>0</v>
+      </c>
+      <c r="J57" s="24">
         <v>435</v>
       </c>
-      <c r="O57" s="29"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K57" s="22"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -5014,36 +2864,36 @@
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:F58" si="8">D54-D57</f>
+        <f t="shared" ref="D58:F58" si="5">D54-D57</f>
         <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="17">
-        <f>K54-K57</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>L54-L57</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>M54-M57</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>N54-N57</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="17">
+        <f>G54-G57</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>H54-H57</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>I54-I57</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J54-J57</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:X54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T54">
     <sortCondition ref="A5:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5052,27 +2902,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="17"/>
-    <col min="6" max="6" width="10.83203125" style="19"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="10.83203125" style="17"/>
-    <col min="11" max="11" width="52.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -5091,7 +2945,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5126,7 +2980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5134,7 +2988,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D3" s="13">
         <v>253094</v>
@@ -5158,8 +3012,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f>IF(AND(SUM(H3:J3)=0,G3&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5167,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D4" s="13">
         <v>274160</v>
@@ -5191,8 +3049,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L65" si="1">IF(AND(SUM(H4:J4)=0,G4&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5200,7 +3062,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -5224,8 +3086,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5246,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G11" si="1">SUM(D6:E6)</f>
+        <f t="shared" ref="G6:G11" si="2">SUM(D6:E6)</f>
         <v>0</v>
       </c>
       <c r="H6" s="17">
@@ -5258,8 +3124,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5280,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="17">
@@ -5292,8 +3162,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5314,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>237596</v>
       </c>
       <c r="H8" s="17">
@@ -5326,8 +3200,12 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5335,7 +3213,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -5348,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>362950</v>
       </c>
       <c r="H9" s="17">
@@ -5360,8 +3238,12 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5369,7 +3251,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D10" s="13">
         <v>0</v>
@@ -5378,11 +3260,11 @@
         <v>344139</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F14" si="2">G10-SUM(D10:E10)</f>
+        <f t="shared" ref="F10:F14" si="3">G10-SUM(D10:E10)</f>
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>344139</v>
       </c>
       <c r="H10" s="17">
@@ -5394,8 +3276,12 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5403,7 +3289,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D11" s="13">
         <v>0</v>
@@ -5412,11 +3298,11 @@
         <v>210944</v>
       </c>
       <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
         <v>210944</v>
       </c>
       <c r="H11" s="17">
@@ -5428,8 +3314,12 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5437,7 +3327,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
@@ -5446,7 +3336,7 @@
         <v>205346</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" s="3">
@@ -5462,8 +3352,12 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5471,7 +3365,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D13" s="13">
         <v>0</v>
@@ -5480,11 +3374,11 @@
         <v>256206</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ref="G13:G65" si="3">SUM(D13:E13)</f>
+        <f t="shared" ref="G13:G65" si="4">SUM(D13:E13)</f>
         <v>256206</v>
       </c>
       <c r="H13" s="17">
@@ -5496,8 +3390,12 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5505,7 +3403,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D14" s="13">
         <v>0</v>
@@ -5514,11 +3412,11 @@
         <v>206036</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>206036</v>
       </c>
       <c r="H14" s="17">
@@ -5530,8 +3428,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5539,7 +3441,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D15" s="13">
         <v>0</v>
@@ -5548,11 +3450,11 @@
         <v>334858</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15" si="4">G15-SUM(D15:E15)</f>
+        <f t="shared" ref="F15" si="5">G15-SUM(D15:E15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" ref="G15" si="5">SUM(D15:E15)</f>
+        <f t="shared" ref="G15" si="6">SUM(D15:E15)</f>
         <v>334858</v>
       </c>
       <c r="H15" s="17">
@@ -5564,8 +3466,12 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5586,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H16" s="17">
@@ -5598,8 +3504,12 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -5620,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17" s="17">
@@ -5632,8 +3542,12 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -5654,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H18" s="17">
@@ -5666,8 +3580,12 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -5675,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D19" s="13">
         <v>305337</v>
@@ -5699,8 +3617,12 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5708,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D20" s="13">
         <v>0</v>
@@ -5717,11 +3639,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20" si="6">G20-SUM(D20:E20)</f>
+        <f t="shared" ref="F20" si="7">G20-SUM(D20:E20)</f>
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" ref="G20" si="7">SUM(D20:E20)</f>
+        <f t="shared" ref="G20" si="8">SUM(D20:E20)</f>
         <v>0</v>
       </c>
       <c r="H20" s="17">
@@ -5734,10 +3656,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -5758,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H21" s="17">
@@ -5770,8 +3696,12 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5792,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="17">
@@ -5804,8 +3734,12 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -5826,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H23" s="17">
@@ -5838,8 +3772,12 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -5847,7 +3785,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
@@ -5871,8 +3809,12 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5893,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H25" s="17">
@@ -5905,8 +3847,12 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -5927,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H26" s="17">
@@ -5939,8 +3885,12 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -5961,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27" s="17">
@@ -5973,8 +3923,12 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -5995,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H28" s="17">
@@ -6007,8 +3961,12 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -6029,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29" s="17">
@@ -6041,8 +3999,12 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -6063,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H30" s="17">
@@ -6075,8 +4037,12 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -6097,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H31" s="17">
@@ -6109,8 +4075,12 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -6118,7 +4088,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D32" s="13">
         <v>0</v>
@@ -6133,20 +4103,24 @@
       <c r="G32" s="3">
         <v>372716</v>
       </c>
-      <c r="H32" s="40">
-        <v>0</v>
-      </c>
-      <c r="I32" s="41">
+      <c r="H32" s="28">
+        <v>0</v>
+      </c>
+      <c r="I32" s="29">
         <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -6154,7 +4128,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D33" s="13">
         <v>0</v>
@@ -6163,26 +4137,30 @@
         <v>286896</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" ref="F33:F35" si="8">G33-SUM(D33:E33)</f>
+        <f t="shared" ref="F33:F35" si="9">G33-SUM(D33:E33)</f>
         <v>101314</v>
       </c>
       <c r="G33" s="3">
         <v>388210</v>
       </c>
-      <c r="H33" s="40">
-        <v>0</v>
-      </c>
-      <c r="I33" s="41">
+      <c r="H33" s="28">
+        <v>0</v>
+      </c>
+      <c r="I33" s="29">
         <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -6190,7 +4168,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D34" s="13">
         <v>0</v>
@@ -6199,26 +4177,30 @@
         <v>267362</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59475</v>
       </c>
       <c r="G34" s="3">
         <v>326837</v>
       </c>
-      <c r="H34" s="40">
-        <v>0</v>
-      </c>
-      <c r="I34" s="41">
+      <c r="H34" s="28">
+        <v>0</v>
+      </c>
+      <c r="I34" s="29">
         <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -6226,7 +4208,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D35" s="13">
         <v>0</v>
@@ -6235,26 +4217,30 @@
         <v>310940</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>122605</v>
       </c>
       <c r="G35" s="3">
         <v>433545</v>
       </c>
-      <c r="H35" s="40">
-        <v>0</v>
-      </c>
-      <c r="I35" s="41">
+      <c r="H35" s="28">
+        <v>0</v>
+      </c>
+      <c r="I35" s="29">
         <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -6275,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H36" s="17">
@@ -6287,8 +4273,12 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -6309,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H37" s="17">
@@ -6321,8 +4311,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -6330,7 +4324,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D38" s="13">
         <v>255971</v>
@@ -6343,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>255971</v>
       </c>
       <c r="H38" s="17">
@@ -6355,8 +4349,12 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -6377,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H39" s="17">
@@ -6389,8 +4387,12 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -6411,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H40" s="17">
@@ -6423,8 +4425,12 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -6445,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H41" s="17">
@@ -6457,8 +4463,12 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -6479,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H42" s="17">
@@ -6491,8 +4501,12 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -6513,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H43" s="17">
@@ -6525,8 +4539,12 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -6547,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H44" s="17">
@@ -6559,8 +4577,12 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -6581,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H45" s="17">
@@ -6593,8 +4615,12 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -6602,7 +4628,7 @@
         <v>73</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -6629,8 +4655,12 @@
       <c r="K46" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -6638,7 +4668,7 @@
         <v>73</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
@@ -6647,7 +4677,7 @@
         <v>218471</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" ref="F47" si="9">G47-SUM(D47:E47)</f>
+        <f t="shared" ref="F47" si="10">G47-SUM(D47:E47)</f>
         <v>47589</v>
       </c>
       <c r="G47" s="3">
@@ -6662,8 +4692,12 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -6671,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D48" s="13">
         <v>0</v>
@@ -6684,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>341457</v>
       </c>
       <c r="H48" s="17">
@@ -6696,8 +4730,12 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -6718,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H49" s="17">
@@ -6730,8 +4768,12 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -6752,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H50" s="17">
@@ -6764,8 +4806,12 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -6786,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H51" s="17">
@@ -6798,8 +4844,12 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -6820,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H52" s="17">
@@ -6832,8 +4882,12 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -6854,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H53" s="17">
@@ -6866,8 +4920,12 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -6875,7 +4933,7 @@
         <v>84</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D54" s="13">
         <v>0</v>
@@ -6899,8 +4957,12 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -6921,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H55" s="17">
@@ -6933,8 +4995,12 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -6942,7 +5008,7 @@
         <v>88</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D56" s="13">
         <v>321984</v>
@@ -6966,8 +5032,12 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -6975,7 +5045,7 @@
         <v>90</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D57" s="13">
         <v>0</v>
@@ -6999,8 +5069,12 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -7021,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H58" s="17">
@@ -7033,8 +5107,12 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -7055,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H59" s="17">
@@ -7067,8 +5145,12 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -7089,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H60" s="17">
@@ -7101,8 +5183,12 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -7110,7 +5196,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D61" s="13">
         <v>271851</v>
@@ -7134,8 +5220,12 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -7143,7 +5233,7 @@
         <v>98</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D62" s="13">
         <v>0</v>
@@ -7167,8 +5257,12 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -7189,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H63" s="17">
@@ -7201,8 +5295,12 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -7223,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H64" s="17">
@@ -7235,8 +5333,12 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -7257,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H65" s="17">
@@ -7269,48 +5371,52 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="18"/>
       <c r="D67" s="16">
-        <f t="shared" ref="D67:J67" si="10">SUM(D3:D65)</f>
+        <f t="shared" ref="D67:J67" si="11">SUM(D3:D65)</f>
         <v>1919993</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4961781</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>787777</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7669551</v>
       </c>
       <c r="H67" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K67" s="18"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C69" s="28"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C70" s="28"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C70" s="21"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7321,917 +5427,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" sqref="C4:E53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>778752</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>237596</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1920479</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>311999</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>254578</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1521308</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="3">
-        <v>255971</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="3">
-        <v>543969</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>341457</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="3">
-        <v>223860</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="3">
-        <v>397732</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="3">
-        <v>252169</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3">
-        <v>289274</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="3">
-        <v>340407</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="3">
-        <v>7669551</v>
-      </c>
-      <c r="D54">
-        <v>12</v>
-      </c>
-      <c r="E54">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C56"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE21789-34DF-4E45-8E9B-73B3AA5E7DCD}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -8246,34 +5441,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -9881,11 +7076,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABE9293-96BF-8F4D-8F05-24D58B7EF64A}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9896,34 +7091,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -9934,7 +7129,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>253094</v>
@@ -9966,7 +7161,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>274160</v>
@@ -9998,7 +7193,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -10126,7 +7321,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10158,7 +7353,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10190,7 +7385,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10222,7 +7417,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10254,7 +7449,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10286,7 +7481,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10318,7 +7513,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10446,7 +7641,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D18">
         <v>305337</v>
@@ -10478,7 +7673,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -10606,7 +7801,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -10862,7 +8057,7 @@
         <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -10894,7 +8089,7 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -10926,7 +8121,7 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -10958,7 +8153,7 @@
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -11054,7 +8249,7 @@
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D37">
         <v>255971</v>
@@ -11310,7 +8505,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -11342,7 +8537,7 @@
         <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -11374,7 +8569,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -11566,7 +8761,7 @@
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -11630,7 +8825,7 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D55">
         <v>321984</v>
@@ -11662,7 +8857,7 @@
         <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -11790,7 +8985,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D60">
         <v>271851</v>
@@ -11822,7 +9017,7 @@
         <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D61">
         <v>0</v>

--- a/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2020 - 117th).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CD798-7C4C-884C-BA18-7848361B008F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26947028-D804-6648-A4E6-0E74BED6D585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="159">
   <si>
     <t>State</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>DISTRICT</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -2902,13 +2905,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4:L65"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3167,7 +3171,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3175,7 +3179,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="D8" s="13">
         <v>237596</v>
@@ -5419,8 +5423,33 @@
       <c r="C70" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A2:J65" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:J65" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10th"/>
+        <filter val="12th"/>
+        <filter val="16th"/>
+        <filter val="18th"/>
+        <filter val="1st"/>
+        <filter val="25th"/>
+        <filter val="29th"/>
+        <filter val="2nd"/>
+        <filter val="34th"/>
+        <filter val="38th"/>
+        <filter val="3rd"/>
+        <filter val="44th"/>
+        <filter val="4th"/>
+        <filter val="53rd"/>
+        <filter val="5th"/>
+        <filter val="6th"/>
+        <filter val="7th"/>
+        <filter val="8th"/>
+        <filter val="9th"/>
+        <filter val="At-large"/>
+        <filter val="n/a"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
